--- a/data/Analysis/NPV.xlsx
+++ b/data/Analysis/NPV.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9403A9D8-F62C-4270-9C11-CE83F99B5991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C884F1-727A-417D-961A-E32426AF94B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{83D55FD4-1814-4229-ACF7-7739455E9410}"/>
+    <workbookView xWindow="-14505" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{83D55FD4-1814-4229-ACF7-7739455E9410}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="npv" sheetId="2" r:id="rId2"/>
+    <sheet name="annuity" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
   <si>
     <t>name</t>
   </si>
@@ -81,7 +82,145 @@
     <t>npv</t>
   </si>
   <si>
-    <t>rate</t>
+    <t>unprofitable</t>
+  </si>
+  <si>
+    <t>profitable</t>
+  </si>
+  <si>
+    <t>IRR</t>
+  </si>
+  <si>
+    <t>discount rate</t>
+  </si>
+  <si>
+    <t>debt rate</t>
+  </si>
+  <si>
+    <t>equity rate</t>
+  </si>
+  <si>
+    <t>equity percentage</t>
+  </si>
+  <si>
+    <t>debt percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">depreciation time </t>
+  </si>
+  <si>
+    <t>construction time</t>
+  </si>
+  <si>
+    <t>downpayment installment</t>
+  </si>
+  <si>
+    <t>wacc</t>
+  </si>
+  <si>
+    <t>annuity</t>
+  </si>
+  <si>
+    <t>downpayment from two years before the start</t>
+  </si>
+  <si>
+    <t>downpayment from 3 years before the start</t>
+  </si>
+  <si>
+    <t>revenues to cover for annuity</t>
+  </si>
+  <si>
+    <t>operating profit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> operating profit - annuity</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>projectValue = discountedOperatingProfit + discountedCapitalCosts;</t>
+  </si>
+  <si>
+    <t>public TreeMap&lt;Integer, Double&gt; calculateSimplePowerPlantInvestmentCashFlow(int depriacationTime, int buildingTime,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        double totalInvestment, double operatingProfit) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TreeMap&lt;Integer, Double&gt; investmentCashFlow = new TreeMap&lt;Integer, Double&gt;();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    double equalTotalDownPaymentInstallement = totalInvestment / buildingTime;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    for (int i = 0; i &lt; buildingTime; i++) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        investmentCashFlow.put(new Integer(i), -equalTotalDownPaymentInstallement);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    for (int i = buildingTime; i &lt; depriacationTime + buildingTime; i++) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return investmentCashFlow;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        investmentCashFlow.put(new Integer(i), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>operatingProfit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>emlab consider wacc and no equity/financing difference</t>
+  </si>
+  <si>
+    <t>100% equity - &gt; optimization models</t>
+  </si>
+  <si>
+    <t xml:space="preserve">old - new : </t>
+  </si>
+  <si>
+    <t>from emlab generation report</t>
+  </si>
+  <si>
+    <t>Rest payment= &gt; but wrong because there are no interest loans</t>
+  </si>
+  <si>
+    <t>with equity and debt 10%</t>
+  </si>
+  <si>
+    <t>with debt 10%</t>
+  </si>
+  <si>
+    <t>considering higher debt rate we are overestimating NPV&gt; overinvestment.  Considering pur way of financing &gt; underinvestment (if debt rate is high)</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>https://fneum.github.io/data-science-for-esm/10-workshop-pypsa-cem.html#from-electricity-market-modelling-to-capacity-expansion-planning</t>
   </si>
 </sst>
 </file>
@@ -91,9 +230,9 @@
   <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;€&quot;\ #,##0;[Red]&quot;€&quot;\ \-#,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;€&quot;\ #,##0.00;[Red]&quot;€&quot;\ \-#,##0.00"/>
-    <numFmt numFmtId="171" formatCode="_ &quot;€&quot;\ * #,##0_ ;_ &quot;€&quot;\ * \-#,##0_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ &quot;€&quot;\ * #,##0_ ;_ &quot;€&quot;\ * \-#,##0_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,13 +253,51 @@
       <color rgb="FF808080"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -132,10 +309,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -146,10 +324,38 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -162,6 +368,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>516059</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>164528</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>474944</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>34990</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{824BB176-FFB2-485F-50E3-00DED0469A19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14009809" y="6551163"/>
+          <a:ext cx="6577539" cy="2618058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -463,7 +718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAFFDB23-FC54-47A4-8DFC-1B64B62A74F9}">
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="69" workbookViewId="0">
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
@@ -1303,415 +1558,1504 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C261F92-D42A-45AF-90F6-72A03AECACA1}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
     <col min="2" max="2" width="17.81640625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.26953125" customWidth="1"/>
-    <col min="7" max="7" width="20.81640625" customWidth="1"/>
-    <col min="8" max="8" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="2.54296875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="27.453125" style="8" customWidth="1"/>
+    <col min="5" max="7" width="21.54296875" customWidth="1"/>
+    <col min="8" max="8" width="24.26953125" customWidth="1"/>
+    <col min="9" max="9" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.7265625" customWidth="1"/>
+    <col min="11" max="11" width="20.81640625" customWidth="1"/>
+    <col min="12" max="12" width="14.36328125" customWidth="1"/>
+    <col min="13" max="13" width="17.453125" customWidth="1"/>
+    <col min="14" max="14" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="15.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1">
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="8">
+        <v>100000000</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="7">
+        <f>(-PMT(B5,30,1,0))*B1</f>
+        <v>6505143.5080276579</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="7">
+        <f>(-PMT(0.1,30,1,0))*B1</f>
+        <v>10607924.825263392</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="10">
+        <v>0</v>
+      </c>
+      <c r="O1" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>0.3</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="7">
+        <v>12000000</v>
+      </c>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="8">
+        <f>NPV(N1,$B$18:$B$49)</f>
+        <v>-5000000</v>
+      </c>
+      <c r="O2" s="8">
+        <f>NPV(O1,$B$18:$B$49)</f>
+        <v>-11622471.1896223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="M3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="8">
+        <f>NPV(N1,$D$18:$D$49)</f>
+        <v>134845694.75917026</v>
+      </c>
+      <c r="O3" s="8">
+        <f>NPV(O1,$D$18:$D$49)</f>
+        <v>49383766.710915618</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="8">
+        <f>B1*B7/(B3+1)</f>
+        <v>10000000</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="7">
+        <f>E2-E1</f>
+        <v>5494856.4919723421</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7">
+        <f>E2-G1</f>
+        <v>1392075.1747366078</v>
+      </c>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+    </row>
+    <row r="5" spans="1:15" ht="18.5">
+      <c r="A5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="18.5">
+      <c r="A6" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="H6" s="11">
+        <f>J13-E13</f>
+        <v>-5.2664987693848087E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="9">
+        <f>(B8*B5)+( B7*B6)</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+    </row>
+    <row r="10" spans="1:15" s="13" customFormat="1" ht="45.5" customHeight="1">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="C11" s="9"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="9">
+        <f>IRR($B$18:$B$49)</f>
+        <v>-1.7136070233869094E-2</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="11">
+        <f>IRR($D$18:$D$49)</f>
+        <v>0.180238382762685</v>
+      </c>
+      <c r="E13" s="12">
+        <f>IRR($E$17:$E$49)</f>
+        <v>0.15536713917700595</v>
+      </c>
+      <c r="F13" s="9">
+        <f>IRR($F$17:$F$49)</f>
+        <v>2.1263950429343037E-2</v>
+      </c>
+      <c r="G13" s="9">
+        <f>IRR($G$17:$G$49)</f>
+        <v>0.25264368152082506</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="11">
+        <f>IRR($I$19:$I$49)</f>
+        <v>0.1154777580788291</v>
+      </c>
+      <c r="J13" s="11">
+        <f>IRR($J$17:$J$49)</f>
+        <v>0.10270215148315787</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="7">
+        <f>NPV(B6,$B$18:$B$49)</f>
+        <v>-13459952.699591607</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7">
+        <f>NPV(B6,$D$18:$D$49)</f>
+        <v>17941019.063875724</v>
+      </c>
+      <c r="E14" s="7">
+        <f>NPV($B$6,$E$17:$E$49)</f>
+        <v>14049242.793537728</v>
+      </c>
+      <c r="F14" s="7">
+        <f>NPV($B$6,$F$17:$F$49)</f>
+        <v>-15009035.609421629</v>
+      </c>
+      <c r="G14" s="7">
+        <f>NPV($B$6,$G$17:$G$49)</f>
+        <v>43596423.627012521</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7">
+        <f>NPV($B$9,$I$19:$I$49)</f>
+        <v>53243296.5934598</v>
+      </c>
+      <c r="J14" s="7">
+        <f>NPV($B$9,$J$17:$J$49)</f>
+        <v>41444838.843094438</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="B16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
+        <v>-3</v>
+      </c>
+      <c r="E17" s="8">
+        <f>-B4</f>
+        <v>-10000000</v>
+      </c>
+      <c r="F17" s="8">
+        <f>G17</f>
+        <v>-10000000</v>
+      </c>
+      <c r="G17" s="8">
+        <f>E17</f>
+        <v>-10000000</v>
+      </c>
+      <c r="H17" s="8"/>
+      <c r="J17" s="8">
+        <f>-B1/3</f>
+        <v>-33333333.333333332</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18">
         <v>-2</v>
       </c>
-      <c r="B1" s="8">
-        <v>-8664000</v>
-      </c>
-      <c r="C1" s="8">
-        <v>-8664000</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B18" s="8">
+        <f>-B4</f>
+        <v>-10000000</v>
+      </c>
+      <c r="D18" s="8">
+        <f>B18</f>
+        <v>-10000000</v>
+      </c>
+      <c r="E18" s="8">
+        <f>E17</f>
+        <v>-10000000</v>
+      </c>
+      <c r="F18" s="8">
+        <f>G18</f>
+        <v>-10000000</v>
+      </c>
+      <c r="G18" s="8">
+        <f>E18</f>
+        <v>-10000000</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="J18" s="8">
+        <f>J17</f>
+        <v>-33333333.333333332</v>
+      </c>
+      <c r="L18" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="P18" s="10"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19">
+        <v>-1</v>
+      </c>
+      <c r="B19" s="8">
+        <f>-B4</f>
+        <v>-10000000</v>
+      </c>
+      <c r="D19" s="8">
+        <f>B19</f>
+        <v>-10000000</v>
+      </c>
+      <c r="E19" s="8">
+        <f>E18</f>
+        <v>-10000000</v>
+      </c>
+      <c r="F19" s="8">
+        <f>G19</f>
+        <v>-10000000</v>
+      </c>
+      <c r="G19" s="8">
+        <f>E19</f>
+        <v>-10000000</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" s="8">
+        <f>-B1</f>
+        <v>-100000000</v>
+      </c>
+      <c r="J19" s="8">
+        <f>J18</f>
+        <v>-33333333.333333332</v>
+      </c>
+      <c r="L19" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="P19" s="8"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20" s="8">
+        <v>500000</v>
+      </c>
+      <c r="D20" s="8">
+        <f>-B4 +E4</f>
+        <v>-4505143.5080276579</v>
+      </c>
+      <c r="E20" s="8">
+        <f>E4</f>
+        <v>5494856.4919723421</v>
+      </c>
+      <c r="F20" s="8">
+        <f>G4</f>
+        <v>1392075.1747366078</v>
+      </c>
+      <c r="G20" s="8">
+        <f>E2-(B1*B8)/30</f>
+        <v>9666666.666666666</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="7">
+        <f>E2</f>
+        <v>12000000</v>
+      </c>
+      <c r="J20" s="7">
+        <f>I20</f>
+        <v>12000000</v>
+      </c>
+      <c r="L20" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="P20" s="8"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" s="8">
+        <v>500000</v>
+      </c>
+      <c r="D21" s="8">
+        <f>E4</f>
+        <v>5494856.4919723421</v>
+      </c>
+      <c r="E21" s="8">
+        <f>E20</f>
+        <v>5494856.4919723421</v>
+      </c>
+      <c r="F21" s="8">
+        <f>F20</f>
+        <v>1392075.1747366078</v>
+      </c>
+      <c r="G21" s="8">
+        <f>G20</f>
+        <v>9666666.666666666</v>
+      </c>
+      <c r="H21" s="8"/>
+      <c r="I21" s="7">
+        <f>I20</f>
+        <v>12000000</v>
+      </c>
+      <c r="J21" s="7">
+        <f t="shared" ref="J21:J49" si="0">I21</f>
+        <v>12000000</v>
+      </c>
+      <c r="L21" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" s="8">
+        <v>500000</v>
+      </c>
+      <c r="D22" s="8">
+        <f>D21</f>
+        <v>5494856.4919723421</v>
+      </c>
+      <c r="E22" s="8">
+        <f t="shared" ref="E22:E49" si="1">E21</f>
+        <v>5494856.4919723421</v>
+      </c>
+      <c r="F22" s="8">
+        <f>F21</f>
+        <v>1392075.1747366078</v>
+      </c>
+      <c r="G22" s="8">
+        <f>G21</f>
+        <v>9666666.666666666</v>
+      </c>
+      <c r="H22" s="8"/>
+      <c r="I22" s="7">
+        <f t="shared" ref="I22:I49" si="2">I21</f>
+        <v>12000000</v>
+      </c>
+      <c r="J22" s="7">
+        <f t="shared" si="0"/>
+        <v>12000000</v>
+      </c>
+      <c r="L22" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="O22" s="9"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" s="8">
+        <v>500000</v>
+      </c>
+      <c r="D23" s="8">
+        <f t="shared" ref="D23:D49" si="3">D22</f>
+        <v>5494856.4919723421</v>
+      </c>
+      <c r="E23" s="8">
+        <f>E22</f>
+        <v>5494856.4919723421</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" ref="F23:F49" si="4">F22</f>
+        <v>1392075.1747366078</v>
+      </c>
+      <c r="G23" s="8">
+        <f t="shared" ref="G23:G49" si="5">G22</f>
+        <v>9666666.666666666</v>
+      </c>
+      <c r="H23" s="8"/>
+      <c r="I23" s="7">
+        <f t="shared" si="2"/>
+        <v>12000000</v>
+      </c>
+      <c r="J23" s="7">
+        <f t="shared" si="0"/>
+        <v>12000000</v>
+      </c>
+      <c r="L23" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24" s="8">
+        <v>500000</v>
+      </c>
+      <c r="D24" s="8">
+        <f t="shared" si="3"/>
+        <v>5494856.4919723421</v>
+      </c>
+      <c r="E24" s="8">
+        <f t="shared" si="1"/>
+        <v>5494856.4919723421</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" si="4"/>
+        <v>1392075.1747366078</v>
+      </c>
+      <c r="G24" s="8">
+        <f t="shared" si="5"/>
+        <v>9666666.666666666</v>
+      </c>
+      <c r="H24" s="8"/>
+      <c r="I24" s="7">
+        <f t="shared" si="2"/>
+        <v>12000000</v>
+      </c>
+      <c r="J24" s="7">
+        <f t="shared" si="0"/>
+        <v>12000000</v>
+      </c>
+      <c r="L24" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25" s="8">
+        <v>500000</v>
+      </c>
+      <c r="D25" s="8">
+        <f t="shared" si="3"/>
+        <v>5494856.4919723421</v>
+      </c>
+      <c r="E25" s="8">
+        <f t="shared" si="1"/>
+        <v>5494856.4919723421</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" si="4"/>
+        <v>1392075.1747366078</v>
+      </c>
+      <c r="G25" s="8">
+        <f t="shared" si="5"/>
+        <v>9666666.666666666</v>
+      </c>
+      <c r="H25" s="8"/>
+      <c r="I25" s="7">
+        <f>I24</f>
+        <v>12000000</v>
+      </c>
+      <c r="J25" s="7">
+        <f t="shared" si="0"/>
+        <v>12000000</v>
+      </c>
+      <c r="L25" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26" s="8">
+        <v>500000</v>
+      </c>
+      <c r="D26" s="8">
+        <f t="shared" si="3"/>
+        <v>5494856.4919723421</v>
+      </c>
+      <c r="E26" s="8">
+        <f t="shared" si="1"/>
+        <v>5494856.4919723421</v>
+      </c>
+      <c r="F26" s="8">
+        <f t="shared" si="4"/>
+        <v>1392075.1747366078</v>
+      </c>
+      <c r="G26" s="8">
+        <f t="shared" si="5"/>
+        <v>9666666.666666666</v>
+      </c>
+      <c r="H26" s="8"/>
+      <c r="I26" s="7">
+        <f t="shared" si="2"/>
+        <v>12000000</v>
+      </c>
+      <c r="J26" s="7">
+        <f t="shared" si="0"/>
+        <v>12000000</v>
+      </c>
+      <c r="L26" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27">
+        <v>7</v>
+      </c>
+      <c r="B27" s="8">
+        <v>500000</v>
+      </c>
+      <c r="D27" s="8">
+        <f t="shared" si="3"/>
+        <v>5494856.4919723421</v>
+      </c>
+      <c r="E27" s="8">
+        <f t="shared" si="1"/>
+        <v>5494856.4919723421</v>
+      </c>
+      <c r="F27" s="8">
+        <f t="shared" si="4"/>
+        <v>1392075.1747366078</v>
+      </c>
+      <c r="G27" s="8">
+        <f t="shared" si="5"/>
+        <v>9666666.666666666</v>
+      </c>
+      <c r="H27" s="8"/>
+      <c r="I27" s="7">
+        <f t="shared" si="2"/>
+        <v>12000000</v>
+      </c>
+      <c r="J27" s="7">
+        <f t="shared" si="0"/>
+        <v>12000000</v>
+      </c>
+      <c r="L27" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28">
+        <v>8</v>
+      </c>
+      <c r="B28" s="8">
+        <v>500000</v>
+      </c>
+      <c r="D28" s="8">
+        <f t="shared" si="3"/>
+        <v>5494856.4919723421</v>
+      </c>
+      <c r="E28" s="8">
+        <f t="shared" si="1"/>
+        <v>5494856.4919723421</v>
+      </c>
+      <c r="F28" s="8">
+        <f t="shared" si="4"/>
+        <v>1392075.1747366078</v>
+      </c>
+      <c r="G28" s="8">
+        <f t="shared" si="5"/>
+        <v>9666666.666666666</v>
+      </c>
+      <c r="H28" s="8"/>
+      <c r="I28" s="7">
+        <f t="shared" si="2"/>
+        <v>12000000</v>
+      </c>
+      <c r="J28" s="7">
+        <f t="shared" si="0"/>
+        <v>12000000</v>
+      </c>
+      <c r="L28" s="18"/>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29">
+        <v>9</v>
+      </c>
+      <c r="B29" s="8">
+        <v>500000</v>
+      </c>
+      <c r="D29" s="8">
+        <f t="shared" si="3"/>
+        <v>5494856.4919723421</v>
+      </c>
+      <c r="E29" s="8">
+        <f>E28</f>
+        <v>5494856.4919723421</v>
+      </c>
+      <c r="F29" s="8">
+        <f t="shared" si="4"/>
+        <v>1392075.1747366078</v>
+      </c>
+      <c r="G29" s="8">
+        <f t="shared" si="5"/>
+        <v>9666666.666666666</v>
+      </c>
+      <c r="H29" s="8"/>
+      <c r="I29" s="7">
+        <f t="shared" si="2"/>
+        <v>12000000</v>
+      </c>
+      <c r="J29" s="7">
+        <f t="shared" si="0"/>
+        <v>12000000</v>
+      </c>
+      <c r="L29" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30">
+        <v>10</v>
+      </c>
+      <c r="B30" s="8">
+        <v>500000</v>
+      </c>
+      <c r="D30" s="8">
+        <f t="shared" si="3"/>
+        <v>5494856.4919723421</v>
+      </c>
+      <c r="E30" s="8">
+        <f t="shared" si="1"/>
+        <v>5494856.4919723421</v>
+      </c>
+      <c r="F30" s="8">
+        <f t="shared" si="4"/>
+        <v>1392075.1747366078</v>
+      </c>
+      <c r="G30" s="8">
+        <f t="shared" si="5"/>
+        <v>9666666.666666666</v>
+      </c>
+      <c r="H30" s="8"/>
+      <c r="I30" s="7">
+        <f t="shared" si="2"/>
+        <v>12000000</v>
+      </c>
+      <c r="J30" s="7">
+        <f t="shared" si="0"/>
+        <v>12000000</v>
+      </c>
+      <c r="L30" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31">
+        <v>11</v>
+      </c>
+      <c r="B31" s="8">
+        <v>500000</v>
+      </c>
+      <c r="D31" s="8">
+        <f t="shared" si="3"/>
+        <v>5494856.4919723421</v>
+      </c>
+      <c r="E31" s="8">
+        <f t="shared" si="1"/>
+        <v>5494856.4919723421</v>
+      </c>
+      <c r="F31" s="8">
+        <f t="shared" si="4"/>
+        <v>1392075.1747366078</v>
+      </c>
+      <c r="G31" s="8">
+        <f t="shared" si="5"/>
+        <v>9666666.666666666</v>
+      </c>
+      <c r="H31" s="8"/>
+      <c r="I31" s="7">
+        <f t="shared" si="2"/>
+        <v>12000000</v>
+      </c>
+      <c r="J31" s="7">
+        <f t="shared" si="0"/>
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32">
+        <v>12</v>
+      </c>
+      <c r="B32" s="8">
+        <v>500000</v>
+      </c>
+      <c r="D32" s="8">
+        <f t="shared" si="3"/>
+        <v>5494856.4919723421</v>
+      </c>
+      <c r="E32" s="8">
+        <f t="shared" si="1"/>
+        <v>5494856.4919723421</v>
+      </c>
+      <c r="F32" s="8">
+        <f t="shared" si="4"/>
+        <v>1392075.1747366078</v>
+      </c>
+      <c r="G32" s="8">
+        <f t="shared" si="5"/>
+        <v>9666666.666666666</v>
+      </c>
+      <c r="H32" s="8"/>
+      <c r="I32" s="7">
+        <f t="shared" si="2"/>
+        <v>12000000</v>
+      </c>
+      <c r="J32" s="7">
+        <f t="shared" si="0"/>
+        <v>12000000</v>
+      </c>
+      <c r="L32" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33">
+        <v>13</v>
+      </c>
+      <c r="B33" s="8">
+        <v>500000</v>
+      </c>
+      <c r="D33" s="8">
+        <f t="shared" si="3"/>
+        <v>5494856.4919723421</v>
+      </c>
+      <c r="E33" s="8">
+        <f t="shared" si="1"/>
+        <v>5494856.4919723421</v>
+      </c>
+      <c r="F33" s="8">
+        <f t="shared" si="4"/>
+        <v>1392075.1747366078</v>
+      </c>
+      <c r="G33" s="8">
+        <f t="shared" si="5"/>
+        <v>9666666.666666666</v>
+      </c>
+      <c r="H33" s="8"/>
+      <c r="I33" s="7">
+        <f t="shared" si="2"/>
+        <v>12000000</v>
+      </c>
+      <c r="J33" s="7">
+        <f t="shared" si="0"/>
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34">
         <v>14</v>
       </c>
-      <c r="F1">
-        <v>0</v>
-      </c>
-      <c r="G1">
-        <v>0.05</v>
-      </c>
-      <c r="H1">
+      <c r="B34" s="8">
+        <v>500000</v>
+      </c>
+      <c r="D34" s="8">
+        <f t="shared" si="3"/>
+        <v>5494856.4919723421</v>
+      </c>
+      <c r="E34" s="8">
+        <f t="shared" si="1"/>
+        <v>5494856.4919723421</v>
+      </c>
+      <c r="F34" s="8">
+        <f t="shared" si="4"/>
+        <v>1392075.1747366078</v>
+      </c>
+      <c r="G34" s="8">
+        <f t="shared" si="5"/>
+        <v>9666666.666666666</v>
+      </c>
+      <c r="H34" s="8"/>
+      <c r="I34" s="7">
+        <f t="shared" si="2"/>
+        <v>12000000</v>
+      </c>
+      <c r="J34" s="7">
+        <f t="shared" si="0"/>
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35">
+        <v>15</v>
+      </c>
+      <c r="B35" s="8">
+        <v>500000</v>
+      </c>
+      <c r="D35" s="8">
+        <f t="shared" si="3"/>
+        <v>5494856.4919723421</v>
+      </c>
+      <c r="E35" s="8">
+        <f t="shared" si="1"/>
+        <v>5494856.4919723421</v>
+      </c>
+      <c r="F35" s="8">
+        <f t="shared" si="4"/>
+        <v>1392075.1747366078</v>
+      </c>
+      <c r="G35" s="8">
+        <f t="shared" si="5"/>
+        <v>9666666.666666666</v>
+      </c>
+      <c r="H35" s="8"/>
+      <c r="I35" s="7">
+        <f t="shared" si="2"/>
+        <v>12000000</v>
+      </c>
+      <c r="J35" s="7">
+        <f t="shared" si="0"/>
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36">
+        <v>16</v>
+      </c>
+      <c r="B36" s="8">
+        <v>500000</v>
+      </c>
+      <c r="D36" s="8">
+        <f t="shared" si="3"/>
+        <v>5494856.4919723421</v>
+      </c>
+      <c r="E36" s="8">
+        <f t="shared" si="1"/>
+        <v>5494856.4919723421</v>
+      </c>
+      <c r="F36" s="8">
+        <f t="shared" si="4"/>
+        <v>1392075.1747366078</v>
+      </c>
+      <c r="G36" s="8">
+        <f t="shared" si="5"/>
+        <v>9666666.666666666</v>
+      </c>
+      <c r="H36" s="8"/>
+      <c r="I36" s="7">
+        <f t="shared" si="2"/>
+        <v>12000000</v>
+      </c>
+      <c r="J36" s="7">
+        <f t="shared" si="0"/>
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37">
+        <v>17</v>
+      </c>
+      <c r="B37" s="8">
+        <v>500000</v>
+      </c>
+      <c r="D37" s="8">
+        <f t="shared" si="3"/>
+        <v>5494856.4919723421</v>
+      </c>
+      <c r="E37" s="8">
+        <f t="shared" si="1"/>
+        <v>5494856.4919723421</v>
+      </c>
+      <c r="F37" s="8">
+        <f t="shared" si="4"/>
+        <v>1392075.1747366078</v>
+      </c>
+      <c r="G37" s="8">
+        <f t="shared" si="5"/>
+        <v>9666666.666666666</v>
+      </c>
+      <c r="H37" s="8"/>
+      <c r="I37" s="7">
+        <f t="shared" si="2"/>
+        <v>12000000</v>
+      </c>
+      <c r="J37" s="7">
+        <f t="shared" si="0"/>
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38">
+        <v>18</v>
+      </c>
+      <c r="B38" s="8">
+        <v>500000</v>
+      </c>
+      <c r="D38" s="8">
+        <f t="shared" si="3"/>
+        <v>5494856.4919723421</v>
+      </c>
+      <c r="E38" s="8">
+        <f t="shared" si="1"/>
+        <v>5494856.4919723421</v>
+      </c>
+      <c r="F38" s="8">
+        <f t="shared" si="4"/>
+        <v>1392075.1747366078</v>
+      </c>
+      <c r="G38" s="8">
+        <f t="shared" si="5"/>
+        <v>9666666.666666666</v>
+      </c>
+      <c r="H38" s="8"/>
+      <c r="I38" s="7">
+        <f t="shared" si="2"/>
+        <v>12000000</v>
+      </c>
+      <c r="J38" s="7">
+        <f t="shared" si="0"/>
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39">
+        <v>19</v>
+      </c>
+      <c r="B39" s="8">
+        <v>500000</v>
+      </c>
+      <c r="D39" s="8">
+        <f t="shared" si="3"/>
+        <v>5494856.4919723421</v>
+      </c>
+      <c r="E39" s="8">
+        <f t="shared" si="1"/>
+        <v>5494856.4919723421</v>
+      </c>
+      <c r="F39" s="8">
+        <f t="shared" si="4"/>
+        <v>1392075.1747366078</v>
+      </c>
+      <c r="G39" s="8">
+        <f t="shared" si="5"/>
+        <v>9666666.666666666</v>
+      </c>
+      <c r="H39" s="8"/>
+      <c r="I39" s="7">
+        <f t="shared" si="2"/>
+        <v>12000000</v>
+      </c>
+      <c r="J39" s="7">
+        <f t="shared" si="0"/>
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40">
+        <v>20</v>
+      </c>
+      <c r="B40" s="8">
+        <v>500000</v>
+      </c>
+      <c r="D40" s="8">
+        <f t="shared" si="3"/>
+        <v>5494856.4919723421</v>
+      </c>
+      <c r="E40" s="8">
+        <f t="shared" si="1"/>
+        <v>5494856.4919723421</v>
+      </c>
+      <c r="F40" s="8">
+        <f t="shared" si="4"/>
+        <v>1392075.1747366078</v>
+      </c>
+      <c r="G40" s="8">
+        <f t="shared" si="5"/>
+        <v>9666666.666666666</v>
+      </c>
+      <c r="H40" s="8"/>
+      <c r="I40" s="7">
+        <f t="shared" si="2"/>
+        <v>12000000</v>
+      </c>
+      <c r="J40" s="7">
+        <f t="shared" si="0"/>
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41">
+        <v>21</v>
+      </c>
+      <c r="B41" s="8">
+        <v>500000</v>
+      </c>
+      <c r="D41" s="8">
+        <f t="shared" si="3"/>
+        <v>5494856.4919723421</v>
+      </c>
+      <c r="E41" s="8">
+        <f t="shared" si="1"/>
+        <v>5494856.4919723421</v>
+      </c>
+      <c r="F41" s="8">
+        <f t="shared" si="4"/>
+        <v>1392075.1747366078</v>
+      </c>
+      <c r="G41" s="8">
+        <f t="shared" si="5"/>
+        <v>9666666.666666666</v>
+      </c>
+      <c r="H41" s="8"/>
+      <c r="I41" s="7">
+        <f t="shared" si="2"/>
+        <v>12000000</v>
+      </c>
+      <c r="J41" s="7">
+        <f t="shared" si="0"/>
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42">
+        <v>22</v>
+      </c>
+      <c r="B42" s="8">
+        <v>500000</v>
+      </c>
+      <c r="D42" s="8">
+        <f t="shared" si="3"/>
+        <v>5494856.4919723421</v>
+      </c>
+      <c r="E42" s="8">
+        <f t="shared" si="1"/>
+        <v>5494856.4919723421</v>
+      </c>
+      <c r="F42" s="8">
+        <f t="shared" si="4"/>
+        <v>1392075.1747366078</v>
+      </c>
+      <c r="G42" s="8">
+        <f t="shared" si="5"/>
+        <v>9666666.666666666</v>
+      </c>
+      <c r="H42" s="8"/>
+      <c r="I42" s="7">
+        <f t="shared" si="2"/>
+        <v>12000000</v>
+      </c>
+      <c r="J42" s="7">
+        <f t="shared" si="0"/>
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43">
+        <v>23</v>
+      </c>
+      <c r="B43" s="8">
+        <v>500000</v>
+      </c>
+      <c r="D43" s="8">
+        <f t="shared" si="3"/>
+        <v>5494856.4919723421</v>
+      </c>
+      <c r="E43" s="8">
+        <f t="shared" si="1"/>
+        <v>5494856.4919723421</v>
+      </c>
+      <c r="F43" s="8">
+        <f t="shared" si="4"/>
+        <v>1392075.1747366078</v>
+      </c>
+      <c r="G43" s="8">
+        <f t="shared" si="5"/>
+        <v>9666666.666666666</v>
+      </c>
+      <c r="H43" s="8"/>
+      <c r="I43" s="7">
+        <f t="shared" si="2"/>
+        <v>12000000</v>
+      </c>
+      <c r="J43" s="7">
+        <f t="shared" si="0"/>
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44">
+        <v>24</v>
+      </c>
+      <c r="B44" s="8">
+        <v>500000</v>
+      </c>
+      <c r="D44" s="8">
+        <f t="shared" si="3"/>
+        <v>5494856.4919723421</v>
+      </c>
+      <c r="E44" s="8">
+        <f t="shared" si="1"/>
+        <v>5494856.4919723421</v>
+      </c>
+      <c r="F44" s="8">
+        <f t="shared" si="4"/>
+        <v>1392075.1747366078</v>
+      </c>
+      <c r="G44" s="8">
+        <f t="shared" si="5"/>
+        <v>9666666.666666666</v>
+      </c>
+      <c r="H44" s="8"/>
+      <c r="I44" s="7">
+        <f t="shared" si="2"/>
+        <v>12000000</v>
+      </c>
+      <c r="J44" s="7">
+        <f t="shared" si="0"/>
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45">
+        <v>25</v>
+      </c>
+      <c r="B45" s="8">
+        <v>500000</v>
+      </c>
+      <c r="D45" s="8">
+        <f t="shared" si="3"/>
+        <v>5494856.4919723421</v>
+      </c>
+      <c r="E45" s="8">
+        <f t="shared" si="1"/>
+        <v>5494856.4919723421</v>
+      </c>
+      <c r="F45" s="8">
+        <f t="shared" si="4"/>
+        <v>1392075.1747366078</v>
+      </c>
+      <c r="G45" s="8">
+        <f t="shared" si="5"/>
+        <v>9666666.666666666</v>
+      </c>
+      <c r="H45" s="8"/>
+      <c r="I45" s="7">
+        <f t="shared" si="2"/>
+        <v>12000000</v>
+      </c>
+      <c r="J45" s="7">
+        <f t="shared" si="0"/>
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46">
+        <v>26</v>
+      </c>
+      <c r="B46" s="8">
+        <v>500000</v>
+      </c>
+      <c r="D46" s="8">
+        <f t="shared" si="3"/>
+        <v>5494856.4919723421</v>
+      </c>
+      <c r="E46" s="8">
+        <f t="shared" si="1"/>
+        <v>5494856.4919723421</v>
+      </c>
+      <c r="F46" s="8">
+        <f t="shared" si="4"/>
+        <v>1392075.1747366078</v>
+      </c>
+      <c r="G46" s="8">
+        <f t="shared" si="5"/>
+        <v>9666666.666666666</v>
+      </c>
+      <c r="H46" s="8"/>
+      <c r="I46" s="7">
+        <f t="shared" si="2"/>
+        <v>12000000</v>
+      </c>
+      <c r="J46" s="7">
+        <f t="shared" si="0"/>
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47">
+        <v>27</v>
+      </c>
+      <c r="B47" s="8">
+        <v>500000</v>
+      </c>
+      <c r="D47" s="8">
+        <f t="shared" si="3"/>
+        <v>5494856.4919723421</v>
+      </c>
+      <c r="E47" s="8">
+        <f t="shared" si="1"/>
+        <v>5494856.4919723421</v>
+      </c>
+      <c r="F47" s="8">
+        <f t="shared" si="4"/>
+        <v>1392075.1747366078</v>
+      </c>
+      <c r="G47" s="8">
+        <f t="shared" si="5"/>
+        <v>9666666.666666666</v>
+      </c>
+      <c r="H47" s="8"/>
+      <c r="I47" s="7">
+        <f t="shared" si="2"/>
+        <v>12000000</v>
+      </c>
+      <c r="J47" s="7">
+        <f t="shared" si="0"/>
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48">
+        <v>28</v>
+      </c>
+      <c r="B48" s="8">
+        <v>500000</v>
+      </c>
+      <c r="D48" s="8">
+        <f t="shared" si="3"/>
+        <v>5494856.4919723421</v>
+      </c>
+      <c r="E48" s="8">
+        <f t="shared" si="1"/>
+        <v>5494856.4919723421</v>
+      </c>
+      <c r="F48" s="8">
+        <f t="shared" si="4"/>
+        <v>1392075.1747366078</v>
+      </c>
+      <c r="G48" s="8">
+        <f t="shared" si="5"/>
+        <v>9666666.666666666</v>
+      </c>
+      <c r="H48" s="8"/>
+      <c r="I48" s="7">
+        <f t="shared" si="2"/>
+        <v>12000000</v>
+      </c>
+      <c r="J48" s="7">
+        <f t="shared" si="0"/>
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49">
+        <v>29</v>
+      </c>
+      <c r="B49" s="8">
+        <v>500000</v>
+      </c>
+      <c r="D49" s="8">
+        <f t="shared" si="3"/>
+        <v>5494856.4919723421</v>
+      </c>
+      <c r="E49" s="8">
+        <f t="shared" si="1"/>
+        <v>5494856.4919723421</v>
+      </c>
+      <c r="F49" s="8">
+        <f t="shared" si="4"/>
+        <v>1392075.1747366078</v>
+      </c>
+      <c r="G49" s="8">
+        <f t="shared" si="5"/>
+        <v>9666666.666666666</v>
+      </c>
+      <c r="H49" s="8"/>
+      <c r="I49" s="7">
+        <f t="shared" si="2"/>
+        <v>12000000</v>
+      </c>
+      <c r="J49" s="7">
+        <f t="shared" si="0"/>
+        <v>12000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H1:J4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C14:J14">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F6D81C7-B300-4311-9A03-B873646C37FD}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="20.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="str">
+        <f>npv!A1</f>
+        <v>investment cost</v>
+      </c>
+      <c r="B1">
+        <f>npv!B1</f>
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="9">
         <v>0.1</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2">
-        <v>-1</v>
-      </c>
-      <c r="B2" s="8">
-        <v>-8664000</v>
-      </c>
-      <c r="C2" s="8">
-        <v>-8664000</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="6">
-        <f>NPV(F1,$B$1:$B$30)</f>
-        <v>-17328000</v>
-      </c>
-      <c r="G2" s="6">
-        <f t="shared" ref="G2:H2" si="0">NPV(G1,$B$1:$B$30)</f>
-        <v>-16109931.972789114</v>
-      </c>
-      <c r="H2" s="6">
-        <f>NPV(H1,$B$1:$B$30)</f>
-        <v>-15036694.214876032</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" s="8">
-        <v>0</v>
-      </c>
-      <c r="C3" s="8">
-        <v>1000000</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="6">
-        <f>NPV(F1,$C$1:$C$30)</f>
-        <v>10672000</v>
-      </c>
-      <c r="G3" s="6">
-        <f t="shared" ref="G3:H3" si="1">NPV(G1,$C$1:$C$30)</f>
-        <v>-2596891.3767452873</v>
-      </c>
-      <c r="H3" s="6">
-        <f>NPV(H1,$C$1:$C$30)</f>
-        <v>-7345316.9379703617</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="8">
-        <v>0</v>
-      </c>
-      <c r="C4" s="8">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="8">
-        <v>0</v>
-      </c>
-      <c r="C5" s="8">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="8">
-        <v>0</v>
-      </c>
-      <c r="C6" s="8">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" s="8">
-        <v>0</v>
-      </c>
-      <c r="C7" s="8">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" s="8">
-        <v>0</v>
-      </c>
-      <c r="C8" s="8">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" s="8">
-        <v>0</v>
-      </c>
-      <c r="C9" s="8">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10" s="8">
-        <v>0</v>
-      </c>
-      <c r="C10" s="8">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11" s="8">
-        <v>0</v>
-      </c>
-      <c r="C11" s="8">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12" s="8">
-        <v>0</v>
-      </c>
-      <c r="C12" s="8">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13" s="8">
-        <v>0</v>
-      </c>
-      <c r="C13" s="8">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14">
-        <v>11</v>
-      </c>
-      <c r="B14" s="8">
-        <v>0</v>
-      </c>
-      <c r="C14" s="8">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="B15" s="8">
-        <v>0</v>
-      </c>
-      <c r="C15" s="8">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16">
-        <v>13</v>
-      </c>
-      <c r="B16" s="8">
-        <v>0</v>
-      </c>
-      <c r="C16" s="8">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>14</v>
-      </c>
-      <c r="B17" s="8">
-        <v>0</v>
-      </c>
-      <c r="C17" s="8">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3">
         <v>15</v>
       </c>
-      <c r="B18" s="8">
-        <v>0</v>
-      </c>
-      <c r="C18" s="8">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
-        <v>16</v>
-      </c>
-      <c r="B19" s="8">
-        <v>0</v>
-      </c>
-      <c r="C19" s="8">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
-        <v>17</v>
-      </c>
-      <c r="B20" s="8">
-        <v>0</v>
-      </c>
-      <c r="C20" s="8">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
-        <v>18</v>
-      </c>
-      <c r="B21" s="8">
-        <v>0</v>
-      </c>
-      <c r="C21" s="8">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
-        <v>19</v>
-      </c>
-      <c r="B22" s="8">
-        <v>0</v>
-      </c>
-      <c r="C22" s="8">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23">
-        <v>20</v>
-      </c>
-      <c r="B23" s="8">
-        <v>0</v>
-      </c>
-      <c r="C23" s="8">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
-        <v>21</v>
-      </c>
-      <c r="B24" s="8">
-        <v>0</v>
-      </c>
-      <c r="C24" s="8">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
-        <v>22</v>
-      </c>
-      <c r="B25" s="8">
-        <v>0</v>
-      </c>
-      <c r="C25" s="8">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26">
-        <v>23</v>
-      </c>
-      <c r="B26" s="8">
-        <v>0</v>
-      </c>
-      <c r="C26" s="8">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27">
-        <v>24</v>
-      </c>
-      <c r="B27" s="8">
-        <v>0</v>
-      </c>
-      <c r="C27" s="8">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28">
-        <v>25</v>
-      </c>
-      <c r="B28" s="8">
-        <v>0</v>
-      </c>
-      <c r="C28" s="8">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="8">
-        <v>0</v>
-      </c>
-      <c r="C29" s="8">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30">
-        <v>27</v>
-      </c>
-      <c r="B30" s="8">
-        <v>0</v>
-      </c>
-      <c r="C30" s="8">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31">
-        <v>28</v>
-      </c>
-      <c r="B31" s="8">
-        <v>0</v>
-      </c>
-      <c r="C31" s="8">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32">
-        <v>29</v>
-      </c>
-      <c r="B32" s="8">
-        <v>0</v>
-      </c>
-      <c r="C32" s="8">
-        <v>1000000</v>
+      <c r="B5">
+        <f>B2/(1-(1/(1+B2)*(EXP(B3))))</f>
+        <v>-3.3649266577928447E-8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6">
+        <f>B5*B1</f>
+        <v>-3.3649266577928447</v>
       </c>
     </row>
   </sheetData>

--- a/data/Analysis/NPV.xlsx
+++ b/data/Analysis/NPV.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C884F1-727A-417D-961A-E32426AF94B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9A2112-F97D-42AF-B232-4EEC11FA9672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{83D55FD4-1814-4229-ACF7-7739455E9410}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{83D55FD4-1814-4229-ACF7-7739455E9410}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="npv" sheetId="2" r:id="rId2"/>
-    <sheet name="annuity" sheetId="3" r:id="rId3"/>
+    <sheet name="test" sheetId="4" r:id="rId2"/>
+    <sheet name="npv" sheetId="2" r:id="rId3"/>
+    <sheet name="annuity" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="59">
   <si>
     <t>name</t>
   </si>
@@ -211,9 +212,6 @@
     <t>with debt 10%</t>
   </si>
   <si>
-    <t>considering higher debt rate we are overestimating NPV&gt; overinvestment.  Considering pur way of financing &gt; underinvestment (if debt rate is high)</t>
-  </si>
-  <si>
     <t>r</t>
   </si>
   <si>
@@ -221,6 +219,21 @@
   </si>
   <si>
     <t>https://fneum.github.io/data-science-for-esm/10-workshop-pypsa-cem.html#from-electricity-market-modelling-to-capacity-expansion-planning</t>
+  </si>
+  <si>
+    <t>annuity offshore</t>
+  </si>
+  <si>
+    <t>annuity pv</t>
+  </si>
+  <si>
+    <t>NPV/1000</t>
+  </si>
+  <si>
+    <t>with debt 8%</t>
+  </si>
+  <si>
+    <t>Considering our way of financing &gt; underinvestment (if debt rate is high)</t>
   </si>
 </sst>
 </file>
@@ -232,7 +245,7 @@
     <numFmt numFmtId="8" formatCode="&quot;€&quot;\ #,##0.00;[Red]&quot;€&quot;\ \-#,##0.00"/>
     <numFmt numFmtId="164" formatCode="_ &quot;€&quot;\ * #,##0_ ;_ &quot;€&quot;\ * \-#,##0_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,6 +298,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -313,7 +333,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -352,6 +372,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="6" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1557,11 +1584,824 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D095D4A3-41F4-4391-BF5C-A186A0C398D7}">
+  <dimension ref="A1:M49"/>
+  <sheetViews>
+    <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="2.54296875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="27.453125" style="8" customWidth="1"/>
+    <col min="5" max="7" width="21.54296875" customWidth="1"/>
+    <col min="8" max="8" width="20.81640625" customWidth="1"/>
+    <col min="9" max="9" width="14.36328125" customWidth="1"/>
+    <col min="10" max="10" width="17.453125" customWidth="1"/>
+    <col min="11" max="11" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="15.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="8">
+        <f>350000*1000</f>
+        <v>350000000</v>
+      </c>
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="7">
+        <f>(-PMT(B5,30,1,0))*B1</f>
+        <v>37127736.888421871</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="7">
+        <f>(-PMT(0.1,30,1,0))*1444000000</f>
+        <v>153178434.47680336</v>
+      </c>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>0.3</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="7">
+        <v>50000000</v>
+      </c>
+      <c r="G2">
+        <v>200000000</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="8">
+        <f>B1*B7/(B3+1)</f>
+        <v>35000000</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="7">
+        <f>E2-E1</f>
+        <v>12872263.111578129</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7">
+        <f>G2-G1</f>
+        <v>46821565.523196638</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="18.5">
+      <c r="A5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="G5" s="6">
+        <f>1444000000*B7/(3+1)</f>
+        <v>108300000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="18.5">
+      <c r="A6" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="10"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="7">
+        <f>E14/1000</f>
+        <v>1556.7997408307233</v>
+      </c>
+      <c r="G7" s="7">
+        <f>G14/1000</f>
+        <v>971446.96569589968</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="9">
+        <f>(B8*B5)+( B7*B6)</f>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+    </row>
+    <row r="10" spans="1:12" s="13" customFormat="1" ht="45.5" customHeight="1">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="C11" s="9"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="9">
+        <f>IRR($B$18:$B$49)</f>
+        <v>-7.8259439562203936E-2</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12">
+        <f>IRR($E$17:$E$45)</f>
+        <v>0.10202395557201194</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9">
+        <f>IRR($G$16:$G$49)</f>
+        <v>8.7199928730179233E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="7">
+        <f>NPV(B6,$B$18:$B$49)</f>
+        <v>-56848382.45165772</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14"/>
+      <c r="E14" s="8">
+        <f>NPV($B$6,$E$17:$E$45)</f>
+        <v>1556799.7408307232</v>
+      </c>
+      <c r="G14" s="7">
+        <f>NPV(G6,$G$16:$G$49)</f>
+        <v>971446965.69589972</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="B16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="8">
+        <f>-G5</f>
+        <v>-108300000</v>
+      </c>
+      <c r="I16" s="17"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17">
+        <v>-3</v>
+      </c>
+      <c r="E17" s="8">
+        <f>-B4</f>
+        <v>-35000000</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8">
+        <f>+G16</f>
+        <v>-108300000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18">
+        <v>-2</v>
+      </c>
+      <c r="B18" s="8">
+        <f>-B4</f>
+        <v>-35000000</v>
+      </c>
+      <c r="E18" s="8">
+        <f>E17</f>
+        <v>-35000000</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8">
+        <f>+G17</f>
+        <v>-108300000</v>
+      </c>
+      <c r="I18" s="17"/>
+      <c r="M18" s="10"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19">
+        <v>-1</v>
+      </c>
+      <c r="B19" s="8">
+        <f>-B4</f>
+        <v>-35000000</v>
+      </c>
+      <c r="E19" s="8">
+        <f>E18</f>
+        <v>-35000000</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8">
+        <f>G18</f>
+        <v>-108300000</v>
+      </c>
+      <c r="I19" s="17"/>
+      <c r="M19" s="8"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20" s="8">
+        <v>500000</v>
+      </c>
+      <c r="E20" s="8">
+        <f>E4</f>
+        <v>12872263.111578129</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8">
+        <f>G4</f>
+        <v>46821565.523196638</v>
+      </c>
+      <c r="I20" s="17"/>
+      <c r="M20" s="8"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" s="8">
+        <v>500000</v>
+      </c>
+      <c r="E21" s="8">
+        <f>E20</f>
+        <v>12872263.111578129</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8">
+        <f>G20</f>
+        <v>46821565.523196638</v>
+      </c>
+      <c r="I21" s="17"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" s="8">
+        <v>500000</v>
+      </c>
+      <c r="E22" s="8">
+        <f t="shared" ref="E22:E39" si="0">E21</f>
+        <v>12872263.111578129</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8">
+        <f t="shared" ref="G22:G49" si="1">G21</f>
+        <v>46821565.523196638</v>
+      </c>
+      <c r="I22" s="17"/>
+      <c r="L22" s="9"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" s="8">
+        <v>500000</v>
+      </c>
+      <c r="E23" s="8">
+        <f>E22</f>
+        <v>12872263.111578129</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8">
+        <f t="shared" si="1"/>
+        <v>46821565.523196638</v>
+      </c>
+      <c r="I23" s="17"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24" s="8">
+        <v>500000</v>
+      </c>
+      <c r="E24" s="8">
+        <f t="shared" si="0"/>
+        <v>12872263.111578129</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8">
+        <f t="shared" si="1"/>
+        <v>46821565.523196638</v>
+      </c>
+      <c r="I24" s="17"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25" s="8">
+        <v>500000</v>
+      </c>
+      <c r="E25" s="8">
+        <f t="shared" si="0"/>
+        <v>12872263.111578129</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8">
+        <f t="shared" si="1"/>
+        <v>46821565.523196638</v>
+      </c>
+      <c r="I25" s="17"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26" s="8">
+        <v>500000</v>
+      </c>
+      <c r="E26" s="8">
+        <f t="shared" si="0"/>
+        <v>12872263.111578129</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8">
+        <f t="shared" si="1"/>
+        <v>46821565.523196638</v>
+      </c>
+      <c r="I26" s="17"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27">
+        <v>7</v>
+      </c>
+      <c r="B27" s="8">
+        <v>500000</v>
+      </c>
+      <c r="E27" s="8">
+        <f t="shared" si="0"/>
+        <v>12872263.111578129</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8">
+        <f t="shared" si="1"/>
+        <v>46821565.523196638</v>
+      </c>
+      <c r="I27" s="17"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28">
+        <v>8</v>
+      </c>
+      <c r="B28" s="8">
+        <v>500000</v>
+      </c>
+      <c r="E28" s="8">
+        <f t="shared" si="0"/>
+        <v>12872263.111578129</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8">
+        <f t="shared" si="1"/>
+        <v>46821565.523196638</v>
+      </c>
+      <c r="I28" s="18"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29">
+        <v>9</v>
+      </c>
+      <c r="B29" s="8">
+        <v>500000</v>
+      </c>
+      <c r="E29" s="8">
+        <f>E28</f>
+        <v>12872263.111578129</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8">
+        <f t="shared" si="1"/>
+        <v>46821565.523196638</v>
+      </c>
+      <c r="I29" s="17"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30">
+        <v>10</v>
+      </c>
+      <c r="B30" s="8">
+        <v>500000</v>
+      </c>
+      <c r="E30" s="8">
+        <f t="shared" si="0"/>
+        <v>12872263.111578129</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8">
+        <f t="shared" si="1"/>
+        <v>46821565.523196638</v>
+      </c>
+      <c r="I30" s="17"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31">
+        <v>11</v>
+      </c>
+      <c r="B31" s="8">
+        <v>500000</v>
+      </c>
+      <c r="E31" s="8">
+        <f t="shared" si="0"/>
+        <v>12872263.111578129</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8">
+        <f t="shared" si="1"/>
+        <v>46821565.523196638</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32">
+        <v>12</v>
+      </c>
+      <c r="B32" s="8">
+        <v>500000</v>
+      </c>
+      <c r="E32" s="8">
+        <f t="shared" si="0"/>
+        <v>12872263.111578129</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8">
+        <f t="shared" si="1"/>
+        <v>46821565.523196638</v>
+      </c>
+      <c r="I32" s="17"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>13</v>
+      </c>
+      <c r="B33" s="8">
+        <v>500000</v>
+      </c>
+      <c r="E33" s="8">
+        <f t="shared" si="0"/>
+        <v>12872263.111578129</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8">
+        <f t="shared" si="1"/>
+        <v>46821565.523196638</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>14</v>
+      </c>
+      <c r="B34" s="8">
+        <v>500000</v>
+      </c>
+      <c r="E34" s="8">
+        <f t="shared" si="0"/>
+        <v>12872263.111578129</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8">
+        <f t="shared" si="1"/>
+        <v>46821565.523196638</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>15</v>
+      </c>
+      <c r="B35" s="8">
+        <v>500000</v>
+      </c>
+      <c r="E35" s="8">
+        <f t="shared" si="0"/>
+        <v>12872263.111578129</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8">
+        <f t="shared" si="1"/>
+        <v>46821565.523196638</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>16</v>
+      </c>
+      <c r="B36" s="8">
+        <v>500000</v>
+      </c>
+      <c r="E36" s="8">
+        <f t="shared" si="0"/>
+        <v>12872263.111578129</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8">
+        <f t="shared" si="1"/>
+        <v>46821565.523196638</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>17</v>
+      </c>
+      <c r="B37" s="8">
+        <v>500000</v>
+      </c>
+      <c r="E37" s="8">
+        <f t="shared" si="0"/>
+        <v>12872263.111578129</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8">
+        <f t="shared" si="1"/>
+        <v>46821565.523196638</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>18</v>
+      </c>
+      <c r="B38" s="8">
+        <v>500000</v>
+      </c>
+      <c r="E38" s="8">
+        <f t="shared" si="0"/>
+        <v>12872263.111578129</v>
+      </c>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8">
+        <f t="shared" si="1"/>
+        <v>46821565.523196638</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>19</v>
+      </c>
+      <c r="B39" s="8">
+        <v>500000</v>
+      </c>
+      <c r="E39" s="8">
+        <f t="shared" si="0"/>
+        <v>12872263.111578129</v>
+      </c>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8">
+        <f t="shared" si="1"/>
+        <v>46821565.523196638</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>20</v>
+      </c>
+      <c r="B40" s="8">
+        <v>500000</v>
+      </c>
+      <c r="E40" s="8">
+        <f t="shared" ref="E40" si="2">E39</f>
+        <v>12872263.111578129</v>
+      </c>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8">
+        <f t="shared" si="1"/>
+        <v>46821565.523196638</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>21</v>
+      </c>
+      <c r="B41" s="8">
+        <v>500000</v>
+      </c>
+      <c r="E41" s="8">
+        <f t="shared" ref="E41:E45" si="3">E40</f>
+        <v>12872263.111578129</v>
+      </c>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8">
+        <f t="shared" si="1"/>
+        <v>46821565.523196638</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>22</v>
+      </c>
+      <c r="B42" s="8">
+        <v>500000</v>
+      </c>
+      <c r="E42" s="8">
+        <f t="shared" si="3"/>
+        <v>12872263.111578129</v>
+      </c>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8">
+        <f t="shared" si="1"/>
+        <v>46821565.523196638</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>23</v>
+      </c>
+      <c r="B43" s="8">
+        <v>500000</v>
+      </c>
+      <c r="E43" s="8">
+        <f t="shared" si="3"/>
+        <v>12872263.111578129</v>
+      </c>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8">
+        <f t="shared" si="1"/>
+        <v>46821565.523196638</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>24</v>
+      </c>
+      <c r="B44" s="8">
+        <v>500000</v>
+      </c>
+      <c r="E44" s="8">
+        <f t="shared" si="3"/>
+        <v>12872263.111578129</v>
+      </c>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8">
+        <f t="shared" si="1"/>
+        <v>46821565.523196638</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>25</v>
+      </c>
+      <c r="B45" s="8">
+        <v>500000</v>
+      </c>
+      <c r="E45" s="8">
+        <f t="shared" si="3"/>
+        <v>12872263.111578129</v>
+      </c>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8">
+        <f t="shared" si="1"/>
+        <v>46821565.523196638</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>26</v>
+      </c>
+      <c r="B46" s="8">
+        <v>500000</v>
+      </c>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8">
+        <f t="shared" si="1"/>
+        <v>46821565.523196638</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>27</v>
+      </c>
+      <c r="B47" s="8">
+        <v>500000</v>
+      </c>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8">
+        <f t="shared" si="1"/>
+        <v>46821565.523196638</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>28</v>
+      </c>
+      <c r="B48" s="8">
+        <v>500000</v>
+      </c>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8">
+        <f t="shared" si="1"/>
+        <v>46821565.523196638</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>29</v>
+      </c>
+      <c r="B49" s="8">
+        <v>500000</v>
+      </c>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8">
+        <f t="shared" si="1"/>
+        <v>46821565.523196638</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C261F92-D42A-45AF-90F6-72A03AECACA1}">
   <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:J4"/>
+    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1592,8 +2432,8 @@
         <v>26</v>
       </c>
       <c r="E1" s="7">
-        <f>(-PMT(B5,30,1,0))*B1</f>
-        <v>6505143.5080276579</v>
+        <f>(-PMT(B5,30,1,0))*B1*B8</f>
+        <v>7425547.3776843743</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>50</v>
@@ -1603,7 +2443,7 @@
         <v>10607924.825263392</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I1" s="21"/>
       <c r="J1" s="21"/>
@@ -1662,11 +2502,11 @@
       </c>
       <c r="N3" s="8">
         <f>NPV(N1,$D$18:$D$49)</f>
-        <v>134845694.75917026</v>
+        <v>107233578.66946879</v>
       </c>
       <c r="O3" s="8">
         <f>NPV(O1,$D$18:$D$49)</f>
-        <v>49383766.710915618</v>
+        <v>36550330.510234155</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1682,7 +2522,7 @@
       </c>
       <c r="E4" s="7">
         <f>E2-E1</f>
-        <v>5494856.4919723421</v>
+        <v>4574452.6223156257</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7">
@@ -1698,7 +2538,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="20">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C5" s="10"/>
       <c r="H5" t="s">
@@ -1715,7 +2555,7 @@
       <c r="C6" s="10"/>
       <c r="H6" s="11">
         <f>J13-E13</f>
-        <v>-5.2664987693848087E-2</v>
+        <v>-2.8107076035416734E-2</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1726,6 +2566,16 @@
         <v>0.3</v>
       </c>
       <c r="C7" s="9"/>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="7">
+        <f>(-PMT(0.08,30,1,0))*B1*B8</f>
+        <v>6217920.337109061</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
@@ -1742,7 +2592,7 @@
       </c>
       <c r="B9" s="9">
         <f>(B8*B5)+( B7*B6)</f>
-        <v>6.5000000000000002E-2</v>
+        <v>9.9999999999999992E-2</v>
       </c>
       <c r="C9" s="9"/>
       <c r="E9" s="8"/>
@@ -1759,9 +2609,9 @@
         <v>28</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="22" t="s">
         <v>48</v>
       </c>
       <c r="I10" s="13" t="s">
@@ -1773,6 +2623,10 @@
     </row>
     <row r="11" spans="1:15">
       <c r="C11" s="9"/>
+      <c r="G11" s="23"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
@@ -1785,17 +2639,17 @@
       <c r="C13" s="9"/>
       <c r="D13" s="11">
         <f>IRR($D$18:$D$49)</f>
-        <v>0.180238382762685</v>
+        <v>0.14916538359067455</v>
       </c>
       <c r="E13" s="12">
         <f>IRR($E$17:$E$49)</f>
-        <v>0.15536713917700595</v>
+        <v>0.1308092275185746</v>
       </c>
       <c r="F13" s="9">
         <f>IRR($F$17:$F$49)</f>
-        <v>2.1263950429343037E-2</v>
-      </c>
-      <c r="G13" s="9">
+        <v>0.17366093032309093</v>
+      </c>
+      <c r="G13" s="24">
         <f>IRR($G$17:$G$49)</f>
         <v>0.25264368152082506</v>
       </c>
@@ -1820,29 +2674,32 @@
       <c r="C14" s="7"/>
       <c r="D14" s="7">
         <f>NPV(B6,$D$18:$D$49)</f>
-        <v>17941019.063875724</v>
+        <v>10770301.250372477</v>
       </c>
       <c r="E14" s="7">
         <f>NPV($B$6,$E$17:$E$49)</f>
-        <v>14049242.793537728</v>
+        <v>7530408.4176256852</v>
       </c>
       <c r="F14" s="7">
         <f>NPV($B$6,$F$17:$F$49)</f>
-        <v>-15009035.609421629</v>
-      </c>
-      <c r="G14" s="7">
+        <v>19170400.586381849</v>
+      </c>
+      <c r="G14" s="25">
         <f>NPV($B$6,$G$17:$G$49)</f>
         <v>43596423.627012521</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7">
         <f>NPV($B$9,$I$19:$I$49)</f>
-        <v>53243296.5934598</v>
+        <v>11929976.003508851</v>
       </c>
       <c r="J14" s="7">
         <f>NPV($B$9,$J$17:$J$49)</f>
-        <v>41444838.843094438</v>
-      </c>
+        <v>2095898.0244375612</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:15">
       <c r="B16" s="8" t="s">
@@ -1851,6 +2708,7 @@
       <c r="D16" s="8" t="s">
         <v>15</v>
       </c>
+      <c r="G16" s="23"/>
       <c r="L16" s="17" t="s">
         <v>33</v>
       </c>
@@ -1867,7 +2725,7 @@
         <f>G17</f>
         <v>-10000000</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="26">
         <f>E17</f>
         <v>-10000000</v>
       </c>
@@ -1897,7 +2755,7 @@
         <f>G18</f>
         <v>-10000000</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="26">
         <f>E18</f>
         <v>-10000000</v>
       </c>
@@ -1931,7 +2789,7 @@
         <f>G19</f>
         <v>-10000000</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="26">
         <f>E19</f>
         <v>-10000000</v>
       </c>
@@ -1960,17 +2818,17 @@
       </c>
       <c r="D20" s="8">
         <f>-B4 +E4</f>
-        <v>-4505143.5080276579</v>
+        <v>-5425547.3776843743</v>
       </c>
       <c r="E20" s="8">
         <f>E4</f>
-        <v>5494856.4919723421</v>
+        <v>4574452.6223156257</v>
       </c>
       <c r="F20" s="8">
-        <f>G4</f>
-        <v>1392075.1747366078</v>
-      </c>
-      <c r="G20" s="8">
+        <f>E7</f>
+        <v>6217920.337109061</v>
+      </c>
+      <c r="G20" s="26">
         <f>E2-(B1*B8)/30</f>
         <v>9666666.666666666</v>
       </c>
@@ -1999,17 +2857,17 @@
       </c>
       <c r="D21" s="8">
         <f>E4</f>
-        <v>5494856.4919723421</v>
+        <v>4574452.6223156257</v>
       </c>
       <c r="E21" s="8">
         <f>E20</f>
-        <v>5494856.4919723421</v>
+        <v>4574452.6223156257</v>
       </c>
       <c r="F21" s="8">
         <f>F20</f>
-        <v>1392075.1747366078</v>
-      </c>
-      <c r="G21" s="8">
+        <v>6217920.337109061</v>
+      </c>
+      <c r="G21" s="26">
         <f>G20</f>
         <v>9666666.666666666</v>
       </c>
@@ -2035,17 +2893,17 @@
       </c>
       <c r="D22" s="8">
         <f>D21</f>
-        <v>5494856.4919723421</v>
+        <v>4574452.6223156257</v>
       </c>
       <c r="E22" s="8">
         <f t="shared" ref="E22:E49" si="1">E21</f>
-        <v>5494856.4919723421</v>
+        <v>4574452.6223156257</v>
       </c>
       <c r="F22" s="8">
         <f>F21</f>
-        <v>1392075.1747366078</v>
-      </c>
-      <c r="G22" s="8">
+        <v>6217920.337109061</v>
+      </c>
+      <c r="G22" s="26">
         <f>G21</f>
         <v>9666666.666666666</v>
       </c>
@@ -2072,17 +2930,17 @@
       </c>
       <c r="D23" s="8">
         <f t="shared" ref="D23:D49" si="3">D22</f>
-        <v>5494856.4919723421</v>
+        <v>4574452.6223156257</v>
       </c>
       <c r="E23" s="8">
         <f>E22</f>
-        <v>5494856.4919723421</v>
+        <v>4574452.6223156257</v>
       </c>
       <c r="F23" s="8">
         <f t="shared" ref="F23:F49" si="4">F22</f>
-        <v>1392075.1747366078</v>
-      </c>
-      <c r="G23" s="8">
+        <v>6217920.337109061</v>
+      </c>
+      <c r="G23" s="26">
         <f t="shared" ref="G23:G49" si="5">G22</f>
         <v>9666666.666666666</v>
       </c>
@@ -2108,17 +2966,17 @@
       </c>
       <c r="D24" s="8">
         <f t="shared" si="3"/>
-        <v>5494856.4919723421</v>
+        <v>4574452.6223156257</v>
       </c>
       <c r="E24" s="8">
         <f t="shared" si="1"/>
-        <v>5494856.4919723421</v>
+        <v>4574452.6223156257</v>
       </c>
       <c r="F24" s="8">
         <f t="shared" si="4"/>
-        <v>1392075.1747366078</v>
-      </c>
-      <c r="G24" s="8">
+        <v>6217920.337109061</v>
+      </c>
+      <c r="G24" s="26">
         <f t="shared" si="5"/>
         <v>9666666.666666666</v>
       </c>
@@ -2144,17 +3002,17 @@
       </c>
       <c r="D25" s="8">
         <f t="shared" si="3"/>
-        <v>5494856.4919723421</v>
+        <v>4574452.6223156257</v>
       </c>
       <c r="E25" s="8">
         <f t="shared" si="1"/>
-        <v>5494856.4919723421</v>
+        <v>4574452.6223156257</v>
       </c>
       <c r="F25" s="8">
         <f t="shared" si="4"/>
-        <v>1392075.1747366078</v>
-      </c>
-      <c r="G25" s="8">
+        <v>6217920.337109061</v>
+      </c>
+      <c r="G25" s="26">
         <f t="shared" si="5"/>
         <v>9666666.666666666</v>
       </c>
@@ -2180,17 +3038,17 @@
       </c>
       <c r="D26" s="8">
         <f t="shared" si="3"/>
-        <v>5494856.4919723421</v>
+        <v>4574452.6223156257</v>
       </c>
       <c r="E26" s="8">
         <f t="shared" si="1"/>
-        <v>5494856.4919723421</v>
+        <v>4574452.6223156257</v>
       </c>
       <c r="F26" s="8">
         <f t="shared" si="4"/>
-        <v>1392075.1747366078</v>
-      </c>
-      <c r="G26" s="8">
+        <v>6217920.337109061</v>
+      </c>
+      <c r="G26" s="26">
         <f t="shared" si="5"/>
         <v>9666666.666666666</v>
       </c>
@@ -2216,17 +3074,17 @@
       </c>
       <c r="D27" s="8">
         <f t="shared" si="3"/>
-        <v>5494856.4919723421</v>
+        <v>4574452.6223156257</v>
       </c>
       <c r="E27" s="8">
         <f t="shared" si="1"/>
-        <v>5494856.4919723421</v>
+        <v>4574452.6223156257</v>
       </c>
       <c r="F27" s="8">
         <f t="shared" si="4"/>
-        <v>1392075.1747366078</v>
-      </c>
-      <c r="G27" s="8">
+        <v>6217920.337109061</v>
+      </c>
+      <c r="G27" s="26">
         <f t="shared" si="5"/>
         <v>9666666.666666666</v>
       </c>
@@ -2252,17 +3110,17 @@
       </c>
       <c r="D28" s="8">
         <f t="shared" si="3"/>
-        <v>5494856.4919723421</v>
+        <v>4574452.6223156257</v>
       </c>
       <c r="E28" s="8">
         <f t="shared" si="1"/>
-        <v>5494856.4919723421</v>
+        <v>4574452.6223156257</v>
       </c>
       <c r="F28" s="8">
         <f t="shared" si="4"/>
-        <v>1392075.1747366078</v>
-      </c>
-      <c r="G28" s="8">
+        <v>6217920.337109061</v>
+      </c>
+      <c r="G28" s="26">
         <f t="shared" si="5"/>
         <v>9666666.666666666</v>
       </c>
@@ -2286,17 +3144,17 @@
       </c>
       <c r="D29" s="8">
         <f t="shared" si="3"/>
-        <v>5494856.4919723421</v>
+        <v>4574452.6223156257</v>
       </c>
       <c r="E29" s="8">
         <f>E28</f>
-        <v>5494856.4919723421</v>
+        <v>4574452.6223156257</v>
       </c>
       <c r="F29" s="8">
         <f t="shared" si="4"/>
-        <v>1392075.1747366078</v>
-      </c>
-      <c r="G29" s="8">
+        <v>6217920.337109061</v>
+      </c>
+      <c r="G29" s="26">
         <f t="shared" si="5"/>
         <v>9666666.666666666</v>
       </c>
@@ -2322,17 +3180,17 @@
       </c>
       <c r="D30" s="8">
         <f t="shared" si="3"/>
-        <v>5494856.4919723421</v>
+        <v>4574452.6223156257</v>
       </c>
       <c r="E30" s="8">
         <f t="shared" si="1"/>
-        <v>5494856.4919723421</v>
+        <v>4574452.6223156257</v>
       </c>
       <c r="F30" s="8">
         <f t="shared" si="4"/>
-        <v>1392075.1747366078</v>
-      </c>
-      <c r="G30" s="8">
+        <v>6217920.337109061</v>
+      </c>
+      <c r="G30" s="26">
         <f t="shared" si="5"/>
         <v>9666666.666666666</v>
       </c>
@@ -2358,17 +3216,17 @@
       </c>
       <c r="D31" s="8">
         <f t="shared" si="3"/>
-        <v>5494856.4919723421</v>
+        <v>4574452.6223156257</v>
       </c>
       <c r="E31" s="8">
         <f t="shared" si="1"/>
-        <v>5494856.4919723421</v>
+        <v>4574452.6223156257</v>
       </c>
       <c r="F31" s="8">
         <f t="shared" si="4"/>
-        <v>1392075.1747366078</v>
-      </c>
-      <c r="G31" s="8">
+        <v>6217920.337109061</v>
+      </c>
+      <c r="G31" s="26">
         <f t="shared" si="5"/>
         <v>9666666.666666666</v>
       </c>
@@ -2391,17 +3249,17 @@
       </c>
       <c r="D32" s="8">
         <f t="shared" si="3"/>
-        <v>5494856.4919723421</v>
+        <v>4574452.6223156257</v>
       </c>
       <c r="E32" s="8">
         <f t="shared" si="1"/>
-        <v>5494856.4919723421</v>
+        <v>4574452.6223156257</v>
       </c>
       <c r="F32" s="8">
         <f t="shared" si="4"/>
-        <v>1392075.1747366078</v>
-      </c>
-      <c r="G32" s="8">
+        <v>6217920.337109061</v>
+      </c>
+      <c r="G32" s="26">
         <f t="shared" si="5"/>
         <v>9666666.666666666</v>
       </c>
@@ -2427,17 +3285,17 @@
       </c>
       <c r="D33" s="8">
         <f t="shared" si="3"/>
-        <v>5494856.4919723421</v>
+        <v>4574452.6223156257</v>
       </c>
       <c r="E33" s="8">
         <f t="shared" si="1"/>
-        <v>5494856.4919723421</v>
+        <v>4574452.6223156257</v>
       </c>
       <c r="F33" s="8">
         <f t="shared" si="4"/>
-        <v>1392075.1747366078</v>
-      </c>
-      <c r="G33" s="8">
+        <v>6217920.337109061</v>
+      </c>
+      <c r="G33" s="26">
         <f t="shared" si="5"/>
         <v>9666666.666666666</v>
       </c>
@@ -2460,17 +3318,17 @@
       </c>
       <c r="D34" s="8">
         <f t="shared" si="3"/>
-        <v>5494856.4919723421</v>
+        <v>4574452.6223156257</v>
       </c>
       <c r="E34" s="8">
         <f t="shared" si="1"/>
-        <v>5494856.4919723421</v>
+        <v>4574452.6223156257</v>
       </c>
       <c r="F34" s="8">
         <f t="shared" si="4"/>
-        <v>1392075.1747366078</v>
-      </c>
-      <c r="G34" s="8">
+        <v>6217920.337109061</v>
+      </c>
+      <c r="G34" s="26">
         <f t="shared" si="5"/>
         <v>9666666.666666666</v>
       </c>
@@ -2493,17 +3351,17 @@
       </c>
       <c r="D35" s="8">
         <f t="shared" si="3"/>
-        <v>5494856.4919723421</v>
+        <v>4574452.6223156257</v>
       </c>
       <c r="E35" s="8">
         <f t="shared" si="1"/>
-        <v>5494856.4919723421</v>
+        <v>4574452.6223156257</v>
       </c>
       <c r="F35" s="8">
         <f t="shared" si="4"/>
-        <v>1392075.1747366078</v>
-      </c>
-      <c r="G35" s="8">
+        <v>6217920.337109061</v>
+      </c>
+      <c r="G35" s="26">
         <f t="shared" si="5"/>
         <v>9666666.666666666</v>
       </c>
@@ -2526,17 +3384,17 @@
       </c>
       <c r="D36" s="8">
         <f t="shared" si="3"/>
-        <v>5494856.4919723421</v>
+        <v>4574452.6223156257</v>
       </c>
       <c r="E36" s="8">
         <f t="shared" si="1"/>
-        <v>5494856.4919723421</v>
+        <v>4574452.6223156257</v>
       </c>
       <c r="F36" s="8">
         <f t="shared" si="4"/>
-        <v>1392075.1747366078</v>
-      </c>
-      <c r="G36" s="8">
+        <v>6217920.337109061</v>
+      </c>
+      <c r="G36" s="26">
         <f t="shared" si="5"/>
         <v>9666666.666666666</v>
       </c>
@@ -2559,17 +3417,17 @@
       </c>
       <c r="D37" s="8">
         <f t="shared" si="3"/>
-        <v>5494856.4919723421</v>
+        <v>4574452.6223156257</v>
       </c>
       <c r="E37" s="8">
         <f t="shared" si="1"/>
-        <v>5494856.4919723421</v>
+        <v>4574452.6223156257</v>
       </c>
       <c r="F37" s="8">
         <f t="shared" si="4"/>
-        <v>1392075.1747366078</v>
-      </c>
-      <c r="G37" s="8">
+        <v>6217920.337109061</v>
+      </c>
+      <c r="G37" s="26">
         <f t="shared" si="5"/>
         <v>9666666.666666666</v>
       </c>
@@ -2592,17 +3450,17 @@
       </c>
       <c r="D38" s="8">
         <f t="shared" si="3"/>
-        <v>5494856.4919723421</v>
+        <v>4574452.6223156257</v>
       </c>
       <c r="E38" s="8">
         <f t="shared" si="1"/>
-        <v>5494856.4919723421</v>
+        <v>4574452.6223156257</v>
       </c>
       <c r="F38" s="8">
         <f t="shared" si="4"/>
-        <v>1392075.1747366078</v>
-      </c>
-      <c r="G38" s="8">
+        <v>6217920.337109061</v>
+      </c>
+      <c r="G38" s="26">
         <f t="shared" si="5"/>
         <v>9666666.666666666</v>
       </c>
@@ -2625,17 +3483,17 @@
       </c>
       <c r="D39" s="8">
         <f t="shared" si="3"/>
-        <v>5494856.4919723421</v>
+        <v>4574452.6223156257</v>
       </c>
       <c r="E39" s="8">
         <f t="shared" si="1"/>
-        <v>5494856.4919723421</v>
+        <v>4574452.6223156257</v>
       </c>
       <c r="F39" s="8">
         <f t="shared" si="4"/>
-        <v>1392075.1747366078</v>
-      </c>
-      <c r="G39" s="8">
+        <v>6217920.337109061</v>
+      </c>
+      <c r="G39" s="26">
         <f t="shared" si="5"/>
         <v>9666666.666666666</v>
       </c>
@@ -2658,17 +3516,17 @@
       </c>
       <c r="D40" s="8">
         <f t="shared" si="3"/>
-        <v>5494856.4919723421</v>
+        <v>4574452.6223156257</v>
       </c>
       <c r="E40" s="8">
         <f t="shared" si="1"/>
-        <v>5494856.4919723421</v>
+        <v>4574452.6223156257</v>
       </c>
       <c r="F40" s="8">
         <f t="shared" si="4"/>
-        <v>1392075.1747366078</v>
-      </c>
-      <c r="G40" s="8">
+        <v>6217920.337109061</v>
+      </c>
+      <c r="G40" s="26">
         <f t="shared" si="5"/>
         <v>9666666.666666666</v>
       </c>
@@ -2691,17 +3549,17 @@
       </c>
       <c r="D41" s="8">
         <f t="shared" si="3"/>
-        <v>5494856.4919723421</v>
+        <v>4574452.6223156257</v>
       </c>
       <c r="E41" s="8">
         <f t="shared" si="1"/>
-        <v>5494856.4919723421</v>
+        <v>4574452.6223156257</v>
       </c>
       <c r="F41" s="8">
         <f t="shared" si="4"/>
-        <v>1392075.1747366078</v>
-      </c>
-      <c r="G41" s="8">
+        <v>6217920.337109061</v>
+      </c>
+      <c r="G41" s="26">
         <f t="shared" si="5"/>
         <v>9666666.666666666</v>
       </c>
@@ -2724,17 +3582,17 @@
       </c>
       <c r="D42" s="8">
         <f t="shared" si="3"/>
-        <v>5494856.4919723421</v>
+        <v>4574452.6223156257</v>
       </c>
       <c r="E42" s="8">
         <f t="shared" si="1"/>
-        <v>5494856.4919723421</v>
+        <v>4574452.6223156257</v>
       </c>
       <c r="F42" s="8">
         <f t="shared" si="4"/>
-        <v>1392075.1747366078</v>
-      </c>
-      <c r="G42" s="8">
+        <v>6217920.337109061</v>
+      </c>
+      <c r="G42" s="26">
         <f t="shared" si="5"/>
         <v>9666666.666666666</v>
       </c>
@@ -2757,17 +3615,17 @@
       </c>
       <c r="D43" s="8">
         <f t="shared" si="3"/>
-        <v>5494856.4919723421</v>
+        <v>4574452.6223156257</v>
       </c>
       <c r="E43" s="8">
         <f t="shared" si="1"/>
-        <v>5494856.4919723421</v>
+        <v>4574452.6223156257</v>
       </c>
       <c r="F43" s="8">
         <f t="shared" si="4"/>
-        <v>1392075.1747366078</v>
-      </c>
-      <c r="G43" s="8">
+        <v>6217920.337109061</v>
+      </c>
+      <c r="G43" s="26">
         <f t="shared" si="5"/>
         <v>9666666.666666666</v>
       </c>
@@ -2790,17 +3648,17 @@
       </c>
       <c r="D44" s="8">
         <f t="shared" si="3"/>
-        <v>5494856.4919723421</v>
+        <v>4574452.6223156257</v>
       </c>
       <c r="E44" s="8">
         <f t="shared" si="1"/>
-        <v>5494856.4919723421</v>
+        <v>4574452.6223156257</v>
       </c>
       <c r="F44" s="8">
         <f t="shared" si="4"/>
-        <v>1392075.1747366078</v>
-      </c>
-      <c r="G44" s="8">
+        <v>6217920.337109061</v>
+      </c>
+      <c r="G44" s="26">
         <f t="shared" si="5"/>
         <v>9666666.666666666</v>
       </c>
@@ -2823,17 +3681,17 @@
       </c>
       <c r="D45" s="8">
         <f t="shared" si="3"/>
-        <v>5494856.4919723421</v>
+        <v>4574452.6223156257</v>
       </c>
       <c r="E45" s="8">
         <f t="shared" si="1"/>
-        <v>5494856.4919723421</v>
+        <v>4574452.6223156257</v>
       </c>
       <c r="F45" s="8">
         <f t="shared" si="4"/>
-        <v>1392075.1747366078</v>
-      </c>
-      <c r="G45" s="8">
+        <v>6217920.337109061</v>
+      </c>
+      <c r="G45" s="26">
         <f t="shared" si="5"/>
         <v>9666666.666666666</v>
       </c>
@@ -2856,17 +3714,17 @@
       </c>
       <c r="D46" s="8">
         <f t="shared" si="3"/>
-        <v>5494856.4919723421</v>
+        <v>4574452.6223156257</v>
       </c>
       <c r="E46" s="8">
         <f t="shared" si="1"/>
-        <v>5494856.4919723421</v>
+        <v>4574452.6223156257</v>
       </c>
       <c r="F46" s="8">
         <f t="shared" si="4"/>
-        <v>1392075.1747366078</v>
-      </c>
-      <c r="G46" s="8">
+        <v>6217920.337109061</v>
+      </c>
+      <c r="G46" s="26">
         <f t="shared" si="5"/>
         <v>9666666.666666666</v>
       </c>
@@ -2889,17 +3747,17 @@
       </c>
       <c r="D47" s="8">
         <f t="shared" si="3"/>
-        <v>5494856.4919723421</v>
+        <v>4574452.6223156257</v>
       </c>
       <c r="E47" s="8">
         <f t="shared" si="1"/>
-        <v>5494856.4919723421</v>
+        <v>4574452.6223156257</v>
       </c>
       <c r="F47" s="8">
         <f t="shared" si="4"/>
-        <v>1392075.1747366078</v>
-      </c>
-      <c r="G47" s="8">
+        <v>6217920.337109061</v>
+      </c>
+      <c r="G47" s="26">
         <f t="shared" si="5"/>
         <v>9666666.666666666</v>
       </c>
@@ -2922,17 +3780,17 @@
       </c>
       <c r="D48" s="8">
         <f t="shared" si="3"/>
-        <v>5494856.4919723421</v>
+        <v>4574452.6223156257</v>
       </c>
       <c r="E48" s="8">
         <f t="shared" si="1"/>
-        <v>5494856.4919723421</v>
+        <v>4574452.6223156257</v>
       </c>
       <c r="F48" s="8">
         <f t="shared" si="4"/>
-        <v>1392075.1747366078</v>
-      </c>
-      <c r="G48" s="8">
+        <v>6217920.337109061</v>
+      </c>
+      <c r="G48" s="26">
         <f t="shared" si="5"/>
         <v>9666666.666666666</v>
       </c>
@@ -2955,17 +3813,17 @@
       </c>
       <c r="D49" s="8">
         <f t="shared" si="3"/>
-        <v>5494856.4919723421</v>
+        <v>4574452.6223156257</v>
       </c>
       <c r="E49" s="8">
         <f t="shared" si="1"/>
-        <v>5494856.4919723421</v>
+        <v>4574452.6223156257</v>
       </c>
       <c r="F49" s="8">
         <f t="shared" si="4"/>
-        <v>1392075.1747366078</v>
-      </c>
-      <c r="G49" s="8">
+        <v>6217920.337109061</v>
+      </c>
+      <c r="G49" s="26">
         <f t="shared" si="5"/>
         <v>9666666.666666666</v>
       </c>
@@ -3001,12 +3859,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F6D81C7-B300-4311-9A03-B873646C37FD}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3026,7 +3884,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="9">
         <v>0.1</v>
@@ -3034,7 +3892,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3">
         <v>15</v>
@@ -3049,7 +3907,7 @@
         <v>-3.3649266577928447E-8</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:4">

--- a/data/Analysis/NPV.xlsx
+++ b/data/Analysis/NPV.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9A2112-F97D-42AF-B232-4EEC11FA9672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A7B2E4-9AFC-4909-BF11-1B19349BD1DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{83D55FD4-1814-4229-ACF7-7739455E9410}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{83D55FD4-1814-4229-ACF7-7739455E9410}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="test" sheetId="4" r:id="rId2"/>
-    <sheet name="npv" sheetId="2" r:id="rId3"/>
-    <sheet name="annuity" sheetId="3" r:id="rId4"/>
+    <sheet name="npv_real" sheetId="6" r:id="rId3"/>
+    <sheet name="npv" sheetId="2" r:id="rId4"/>
+    <sheet name="annuity" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="61">
   <si>
     <t>name</t>
   </si>
@@ -235,6 +236,12 @@
   <si>
     <t>Considering our way of financing &gt; underinvestment (if debt rate is high)</t>
   </si>
+  <si>
+    <t>solar</t>
+  </si>
+  <si>
+    <t>turbine</t>
+  </si>
 </sst>
 </file>
 
@@ -245,7 +252,7 @@
     <numFmt numFmtId="8" formatCode="&quot;€&quot;\ #,##0.00;[Red]&quot;€&quot;\ \-#,##0.00"/>
     <numFmt numFmtId="164" formatCode="_ &quot;€&quot;\ * #,##0_ ;_ &quot;€&quot;\ * \-#,##0_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,6 +312,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -333,7 +346,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -369,9 +382,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -379,6 +389,13 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="6" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="6" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,6 +415,55 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>516059</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>164528</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>474944</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>34990</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D66DB-EBBC-4DB4-99F3-724AC3052672}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15517934" y="6466903"/>
+          <a:ext cx="6578760" cy="2588262"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -745,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAFFDB23-FC54-47A4-8DFC-1B64B62A74F9}">
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="69" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView zoomScale="69" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2397,11 +2463,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C261F92-D42A-45AF-90F6-72A03AECACA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6754F988-D687-4795-A200-06C377B17A67}">
   <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2433,7 +2499,7 @@
       </c>
       <c r="E1" s="7">
         <f>(-PMT(B5,30,1,0))*B1*B8</f>
-        <v>7425547.3776843743</v>
+        <v>5641048.245777783</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>50</v>
@@ -2442,11 +2508,11 @@
         <f>(-PMT(0.1,30,1,0))*B1</f>
         <v>10607924.825263392</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
       <c r="M1" t="s">
         <v>17</v>
       </c>
@@ -2471,19 +2537,19 @@
       <c r="E2" s="7">
         <v>12000000</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
       <c r="M2" t="s">
         <v>13</v>
       </c>
       <c r="N2" s="8">
         <f>NPV(N1,$B$18:$B$49)</f>
-        <v>-5000000</v>
+        <v>275812126.28126001</v>
       </c>
       <c r="O2" s="8">
         <f>NPV(O1,$B$18:$B$49)</f>
-        <v>-11622471.1896223</v>
+        <v>5150321.7042644834</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2494,19 +2560,19 @@
         <v>2</v>
       </c>
       <c r="C3"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
       <c r="M3" t="s">
         <v>13</v>
       </c>
       <c r="N3" s="8">
         <f>NPV(N1,$D$18:$D$49)</f>
-        <v>107233578.66946879</v>
+        <v>1229838404.9788702</v>
       </c>
       <c r="O3" s="8">
         <f>NPV(O1,$D$18:$D$49)</f>
-        <v>36550330.510234155</v>
+        <v>669750573.75223112</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -2522,16 +2588,934 @@
       </c>
       <c r="E4" s="7">
         <f>E2-E1</f>
-        <v>4574452.6223156257</v>
+        <v>6358951.754222217</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7">
         <f>E2-G1</f>
         <v>1392075.1747366078</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+    </row>
+    <row r="5" spans="1:15" ht="18.5">
+      <c r="A5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="20">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="18.5">
+      <c r="A6" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="20">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="H6" s="11">
+        <f>J13-E13</f>
+        <v>-9.0316308109760879E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="7">
+        <f>(-PMT(0.08,30,1,0))*B1*B8</f>
+        <v>6217920.337109061</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="9">
+        <f>(B8*B5)+( B7*B6)</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+    </row>
+    <row r="10" spans="1:15" s="13" customFormat="1" ht="45.5" customHeight="1">
+      <c r="B10" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="21"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="C11" s="9"/>
+      <c r="G11" s="22"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="G12" s="22"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="11">
+        <f>IRR($B$18:$B$43)</f>
+        <v>5.1807507268940345E-2</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="11">
+        <f>IRR($D$17:$D$42)</f>
+        <v>7.4374337682289182E-2</v>
+      </c>
+      <c r="E13" s="12">
+        <f>IRR($E$17:$E$48)</f>
+        <v>9.0316308109760879E-2</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="26">
+        <f>NPV(B6,$B$18:$B$43)</f>
+        <v>-41945133.509693183</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="28">
+        <f>NPV(B6,$D$17:$D$42)</f>
+        <v>20735191.858717445</v>
+      </c>
+      <c r="E14" s="28">
+        <f>NPV($B$6,$E$17:$E$48)</f>
+        <v>262139191.57894319</v>
+      </c>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="29"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="B16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="22"/>
+      <c r="L16" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
+        <v>-3</v>
+      </c>
+      <c r="D17" s="8">
+        <v>-525000000</v>
+      </c>
+      <c r="E17" s="8">
+        <v>-649800000</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="8"/>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18">
+        <v>-2</v>
+      </c>
+      <c r="B18" s="8">
+        <v>-130500000</v>
+      </c>
+      <c r="D18" s="8">
+        <v>41277022.95775</v>
+      </c>
+      <c r="E18" s="8">
+        <v>-649800000</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="L18" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="P18" s="10"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19">
+        <v>-1</v>
+      </c>
+      <c r="B19" s="8">
+        <v>-130500000</v>
+      </c>
+      <c r="D19" s="8">
+        <v>55543426.328749999</v>
+      </c>
+      <c r="E19" s="8">
+        <v>113610980.80807</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="L19" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="P19" s="8"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20" s="8">
+        <v>11697380.26172</v>
+      </c>
+      <c r="D20" s="8">
+        <v>59537431.592629999</v>
+      </c>
+      <c r="E20" s="8">
+        <v>115162234.9017</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="L20" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="P20" s="8"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" s="8">
+        <v>-60119619.73827</v>
+      </c>
+      <c r="D21" s="8">
+        <v>22268206.843109999</v>
+      </c>
+      <c r="E21" s="8">
+        <v>138265769.74270999</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="L21" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" s="8">
+        <v>220272380.2617</v>
+      </c>
+      <c r="D22" s="8">
+        <v>35380329.961829998</v>
+      </c>
+      <c r="E22" s="8">
+        <v>104636705.10765</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="L22" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="O22" s="9"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" s="8">
+        <v>35498380.261720002</v>
+      </c>
+      <c r="D23" s="8">
+        <v>27099831.84956</v>
+      </c>
+      <c r="E23" s="8">
+        <v>168978062.54888001</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="L23" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24" s="8">
+        <v>-33103619.738279998</v>
+      </c>
+      <c r="D24" s="8">
+        <v>40945537.83038</v>
+      </c>
+      <c r="E24" s="8">
+        <v>146618065.62988001</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="L24" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25" s="8">
+        <v>-61219119.73827</v>
+      </c>
+      <c r="D25" s="8">
+        <v>38566640.333400004</v>
+      </c>
+      <c r="E25" s="8">
+        <v>179191003.3479</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="L25" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26" s="8">
+        <v>58683880.261720002</v>
+      </c>
+      <c r="D26" s="8">
+        <v>81991109.854540005</v>
+      </c>
+      <c r="E26" s="8">
+        <v>138165215.60369</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="L26" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27">
+        <v>7</v>
+      </c>
+      <c r="B27" s="8">
+        <v>23670380.261709999</v>
+      </c>
+      <c r="D27" s="8">
+        <v>45643539.189369999</v>
+      </c>
+      <c r="E27" s="8">
+        <v>120446909.93516</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="L27" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28">
+        <v>8</v>
+      </c>
+      <c r="B28" s="8">
+        <v>31898880.261709999</v>
+      </c>
+      <c r="D28" s="8">
+        <v>56008739.457149997</v>
+      </c>
+      <c r="E28" s="8">
+        <v>134115672.2474</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="L28" s="18"/>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29">
+        <v>9</v>
+      </c>
+      <c r="B29" s="8">
+        <v>-25832119.738279998</v>
+      </c>
+      <c r="D29" s="8">
+        <v>50583250.732309997</v>
+      </c>
+      <c r="E29" s="8">
+        <v>137221971.05853</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="L29" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30">
+        <v>10</v>
+      </c>
+      <c r="B30" s="8">
+        <v>-40189619.73827</v>
+      </c>
+      <c r="D30" s="8">
+        <v>25174597.771340001</v>
+      </c>
+      <c r="E30" s="8">
+        <v>130654690.33807001</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="L30" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31">
+        <v>11</v>
+      </c>
+      <c r="B31" s="8">
+        <v>-36633119.73827</v>
+      </c>
+      <c r="D31" s="8">
+        <v>26326039.956020001</v>
+      </c>
+      <c r="E31" s="8">
+        <v>125448314.1344</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32">
+        <v>12</v>
+      </c>
+      <c r="B32" s="8">
+        <v>-15988119.73828</v>
+      </c>
+      <c r="D32" s="8">
+        <v>52644944.313069999</v>
+      </c>
+      <c r="E32" s="8">
+        <v>125130073.62319</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="L32" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33">
+        <v>13</v>
+      </c>
+      <c r="B33" s="8">
+        <v>-20275619.73827</v>
+      </c>
+      <c r="D33" s="8">
+        <v>80509441.413670003</v>
+      </c>
+      <c r="E33" s="8">
+        <v>137906154.56772</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34">
+        <v>14</v>
+      </c>
+      <c r="B34" s="8">
+        <v>70498380.261720002</v>
+      </c>
+      <c r="D34" s="8">
+        <v>49049766.494149998</v>
+      </c>
+      <c r="E34" s="8">
+        <v>136256645.43597999</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35">
+        <v>15</v>
+      </c>
+      <c r="B35" s="8">
+        <v>-6531119.7382800002</v>
+      </c>
+      <c r="D35" s="8">
+        <v>53935637.28593</v>
+      </c>
+      <c r="E35" s="8">
+        <v>123629233.20122001</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36">
+        <v>16</v>
+      </c>
+      <c r="B36" s="8">
+        <v>50283380.261720002</v>
+      </c>
+      <c r="D36" s="8">
+        <v>50588420.190629996</v>
+      </c>
+      <c r="E36" s="8">
+        <v>155271297.82675001</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37">
+        <v>17</v>
+      </c>
+      <c r="B37" s="8">
+        <v>85127380.261710003</v>
+      </c>
+      <c r="D37" s="8">
+        <v>61215851.276440002</v>
+      </c>
+      <c r="E37" s="8">
+        <v>131321746.84281</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38">
+        <v>18</v>
+      </c>
+      <c r="B38" s="8">
+        <v>-47590119.73827</v>
+      </c>
+      <c r="D38" s="8">
+        <v>36409068.364069998</v>
+      </c>
+      <c r="E38" s="8">
+        <v>137705544.62830001</v>
+      </c>
+      <c r="F38" s="8"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39">
+        <v>19</v>
+      </c>
+      <c r="B39" s="8">
+        <v>-64348119.73827</v>
+      </c>
+      <c r="D39" s="8">
+        <v>70410211.867679998</v>
+      </c>
+      <c r="E39" s="8">
+        <v>129279211.19497</v>
+      </c>
+      <c r="F39" s="8"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40">
+        <v>20</v>
+      </c>
+      <c r="B40" s="8">
+        <v>99127380.261710003</v>
+      </c>
+      <c r="D40" s="8">
+        <v>57334001.585170001</v>
+      </c>
+      <c r="E40" s="8">
+        <v>111395388.92047</v>
+      </c>
+      <c r="F40" s="8"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41">
+        <v>21</v>
+      </c>
+      <c r="B41" s="8">
+        <v>240218380.26168999</v>
+      </c>
+      <c r="D41" s="8">
+        <v>62299004.715489998</v>
+      </c>
+      <c r="E41" s="8">
+        <v>113508918.1487</v>
+      </c>
+      <c r="F41" s="8"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42">
+        <v>22</v>
+      </c>
+      <c r="B42" s="8">
+        <v>-41732619.73827</v>
+      </c>
+      <c r="D42" s="8">
+        <v>49096352.814429998</v>
+      </c>
+      <c r="E42" s="8">
+        <v>119126810.71479</v>
+      </c>
+      <c r="F42" s="8"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43">
+        <v>23</v>
+      </c>
+      <c r="B43" s="8">
+        <v>63398880.261710003</v>
+      </c>
+      <c r="E43" s="8">
+        <v>120742361.32557</v>
+      </c>
+      <c r="F43" s="8"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="E44" s="8">
+        <v>125210866.90606</v>
+      </c>
+      <c r="F44" s="8"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="E45" s="8">
+        <v>117617444.69209</v>
+      </c>
+      <c r="F45" s="8"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="E46" s="8">
+        <v>136040698.75827</v>
+      </c>
+      <c r="F46" s="8"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="E47" s="8">
+        <v>130283984.98306</v>
+      </c>
+      <c r="F47" s="8"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="E48" s="8">
+        <v>149723987.95829999</v>
+      </c>
+      <c r="F48" s="8"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+    </row>
+    <row r="49" spans="5:10">
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H1:J4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="I14:J14 C14">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C261F92-D42A-45AF-90F6-72A03AECACA1}">
+  <dimension ref="A1:P49"/>
+  <sheetViews>
+    <sheetView zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="2.54296875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="27.453125" style="8" customWidth="1"/>
+    <col min="5" max="7" width="21.54296875" customWidth="1"/>
+    <col min="8" max="8" width="24.26953125" customWidth="1"/>
+    <col min="9" max="9" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.7265625" customWidth="1"/>
+    <col min="11" max="11" width="20.81640625" customWidth="1"/>
+    <col min="12" max="12" width="14.36328125" customWidth="1"/>
+    <col min="13" max="13" width="17.453125" customWidth="1"/>
+    <col min="14" max="14" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="15.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="8">
+        <v>100000000</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="7">
+        <f>(-PMT(B5,30,1,0))*B1*B8</f>
+        <v>7425547.3776843743</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="7">
+        <f>(-PMT(0.1,30,1,0))*B1</f>
+        <v>10607924.825263392</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="10">
+        <v>0</v>
+      </c>
+      <c r="O1" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>0.3</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="7">
+        <v>12000000</v>
+      </c>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="8">
+        <f>NPV(N1,$B$18:$B$49)</f>
+        <v>-5000000</v>
+      </c>
+      <c r="O2" s="8">
+        <f>NPV(O1,$B$18:$B$49)</f>
+        <v>-11622471.1896223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="M3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="8">
+        <f>NPV(N1,$D$18:$D$49)</f>
+        <v>107233578.66946879</v>
+      </c>
+      <c r="O3" s="8">
+        <f>NPV(O1,$D$18:$D$49)</f>
+        <v>36550330.510234155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="8">
+        <f>B1*B7/(B3+1)</f>
+        <v>10000000</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="7">
+        <f>E2-E1</f>
+        <v>4574452.6223156257</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7">
+        <f>E2-G1</f>
+        <v>1392075.1747366078</v>
+      </c>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
     </row>
     <row r="5" spans="1:15" ht="18.5">
       <c r="A5" s="19" t="s">
@@ -2611,7 +3595,7 @@
       <c r="F10" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="21" t="s">
         <v>48</v>
       </c>
       <c r="I10" s="13" t="s">
@@ -2623,10 +3607,10 @@
     </row>
     <row r="11" spans="1:15">
       <c r="C11" s="9"/>
-      <c r="G11" s="23"/>
+      <c r="G11" s="22"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="G12" s="23"/>
+      <c r="G12" s="22"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
@@ -2649,7 +3633,7 @@
         <f>IRR($F$17:$F$49)</f>
         <v>0.17366093032309093</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="23">
         <f>IRR($G$17:$G$49)</f>
         <v>0.25264368152082506</v>
       </c>
@@ -2684,7 +3668,7 @@
         <f>NPV($B$6,$F$17:$F$49)</f>
         <v>19170400.586381849</v>
       </c>
-      <c r="G14" s="25">
+      <c r="G14" s="24">
         <f>NPV($B$6,$G$17:$G$49)</f>
         <v>43596423.627012521</v>
       </c>
@@ -2699,7 +3683,7 @@
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="G15" s="23"/>
+      <c r="G15" s="22"/>
     </row>
     <row r="16" spans="1:15">
       <c r="B16" s="8" t="s">
@@ -2708,7 +3692,7 @@
       <c r="D16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="23"/>
+      <c r="G16" s="22"/>
       <c r="L16" s="17" t="s">
         <v>33</v>
       </c>
@@ -2725,7 +3709,7 @@
         <f>G17</f>
         <v>-10000000</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="25">
         <f>E17</f>
         <v>-10000000</v>
       </c>
@@ -2755,7 +3739,7 @@
         <f>G18</f>
         <v>-10000000</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G18" s="25">
         <f>E18</f>
         <v>-10000000</v>
       </c>
@@ -2789,7 +3773,7 @@
         <f>G19</f>
         <v>-10000000</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="25">
         <f>E19</f>
         <v>-10000000</v>
       </c>
@@ -2828,7 +3812,7 @@
         <f>E7</f>
         <v>6217920.337109061</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G20" s="25">
         <f>E2-(B1*B8)/30</f>
         <v>9666666.666666666</v>
       </c>
@@ -2867,7 +3851,7 @@
         <f>F20</f>
         <v>6217920.337109061</v>
       </c>
-      <c r="G21" s="26">
+      <c r="G21" s="25">
         <f>G20</f>
         <v>9666666.666666666</v>
       </c>
@@ -2903,7 +3887,7 @@
         <f>F21</f>
         <v>6217920.337109061</v>
       </c>
-      <c r="G22" s="26">
+      <c r="G22" s="25">
         <f>G21</f>
         <v>9666666.666666666</v>
       </c>
@@ -2940,7 +3924,7 @@
         <f t="shared" ref="F23:F49" si="4">F22</f>
         <v>6217920.337109061</v>
       </c>
-      <c r="G23" s="26">
+      <c r="G23" s="25">
         <f t="shared" ref="G23:G49" si="5">G22</f>
         <v>9666666.666666666</v>
       </c>
@@ -2976,7 +3960,7 @@
         <f t="shared" si="4"/>
         <v>6217920.337109061</v>
       </c>
-      <c r="G24" s="26">
+      <c r="G24" s="25">
         <f t="shared" si="5"/>
         <v>9666666.666666666</v>
       </c>
@@ -3012,7 +3996,7 @@
         <f t="shared" si="4"/>
         <v>6217920.337109061</v>
       </c>
-      <c r="G25" s="26">
+      <c r="G25" s="25">
         <f t="shared" si="5"/>
         <v>9666666.666666666</v>
       </c>
@@ -3048,7 +4032,7 @@
         <f t="shared" si="4"/>
         <v>6217920.337109061</v>
       </c>
-      <c r="G26" s="26">
+      <c r="G26" s="25">
         <f t="shared" si="5"/>
         <v>9666666.666666666</v>
       </c>
@@ -3084,7 +4068,7 @@
         <f t="shared" si="4"/>
         <v>6217920.337109061</v>
       </c>
-      <c r="G27" s="26">
+      <c r="G27" s="25">
         <f t="shared" si="5"/>
         <v>9666666.666666666</v>
       </c>
@@ -3120,7 +4104,7 @@
         <f t="shared" si="4"/>
         <v>6217920.337109061</v>
       </c>
-      <c r="G28" s="26">
+      <c r="G28" s="25">
         <f t="shared" si="5"/>
         <v>9666666.666666666</v>
       </c>
@@ -3154,7 +4138,7 @@
         <f t="shared" si="4"/>
         <v>6217920.337109061</v>
       </c>
-      <c r="G29" s="26">
+      <c r="G29" s="25">
         <f t="shared" si="5"/>
         <v>9666666.666666666</v>
       </c>
@@ -3190,7 +4174,7 @@
         <f t="shared" si="4"/>
         <v>6217920.337109061</v>
       </c>
-      <c r="G30" s="26">
+      <c r="G30" s="25">
         <f t="shared" si="5"/>
         <v>9666666.666666666</v>
       </c>
@@ -3226,7 +4210,7 @@
         <f t="shared" si="4"/>
         <v>6217920.337109061</v>
       </c>
-      <c r="G31" s="26">
+      <c r="G31" s="25">
         <f t="shared" si="5"/>
         <v>9666666.666666666</v>
       </c>
@@ -3259,7 +4243,7 @@
         <f t="shared" si="4"/>
         <v>6217920.337109061</v>
       </c>
-      <c r="G32" s="26">
+      <c r="G32" s="25">
         <f t="shared" si="5"/>
         <v>9666666.666666666</v>
       </c>
@@ -3295,7 +4279,7 @@
         <f t="shared" si="4"/>
         <v>6217920.337109061</v>
       </c>
-      <c r="G33" s="26">
+      <c r="G33" s="25">
         <f t="shared" si="5"/>
         <v>9666666.666666666</v>
       </c>
@@ -3328,7 +4312,7 @@
         <f t="shared" si="4"/>
         <v>6217920.337109061</v>
       </c>
-      <c r="G34" s="26">
+      <c r="G34" s="25">
         <f t="shared" si="5"/>
         <v>9666666.666666666</v>
       </c>
@@ -3361,7 +4345,7 @@
         <f t="shared" si="4"/>
         <v>6217920.337109061</v>
       </c>
-      <c r="G35" s="26">
+      <c r="G35" s="25">
         <f t="shared" si="5"/>
         <v>9666666.666666666</v>
       </c>
@@ -3394,7 +4378,7 @@
         <f t="shared" si="4"/>
         <v>6217920.337109061</v>
       </c>
-      <c r="G36" s="26">
+      <c r="G36" s="25">
         <f t="shared" si="5"/>
         <v>9666666.666666666</v>
       </c>
@@ -3427,7 +4411,7 @@
         <f t="shared" si="4"/>
         <v>6217920.337109061</v>
       </c>
-      <c r="G37" s="26">
+      <c r="G37" s="25">
         <f t="shared" si="5"/>
         <v>9666666.666666666</v>
       </c>
@@ -3460,7 +4444,7 @@
         <f t="shared" si="4"/>
         <v>6217920.337109061</v>
       </c>
-      <c r="G38" s="26">
+      <c r="G38" s="25">
         <f t="shared" si="5"/>
         <v>9666666.666666666</v>
       </c>
@@ -3493,7 +4477,7 @@
         <f t="shared" si="4"/>
         <v>6217920.337109061</v>
       </c>
-      <c r="G39" s="26">
+      <c r="G39" s="25">
         <f t="shared" si="5"/>
         <v>9666666.666666666</v>
       </c>
@@ -3526,7 +4510,7 @@
         <f t="shared" si="4"/>
         <v>6217920.337109061</v>
       </c>
-      <c r="G40" s="26">
+      <c r="G40" s="25">
         <f t="shared" si="5"/>
         <v>9666666.666666666</v>
       </c>
@@ -3559,7 +4543,7 @@
         <f t="shared" si="4"/>
         <v>6217920.337109061</v>
       </c>
-      <c r="G41" s="26">
+      <c r="G41" s="25">
         <f t="shared" si="5"/>
         <v>9666666.666666666</v>
       </c>
@@ -3592,7 +4576,7 @@
         <f t="shared" si="4"/>
         <v>6217920.337109061</v>
       </c>
-      <c r="G42" s="26">
+      <c r="G42" s="25">
         <f t="shared" si="5"/>
         <v>9666666.666666666</v>
       </c>
@@ -3625,7 +4609,7 @@
         <f t="shared" si="4"/>
         <v>6217920.337109061</v>
       </c>
-      <c r="G43" s="26">
+      <c r="G43" s="25">
         <f t="shared" si="5"/>
         <v>9666666.666666666</v>
       </c>
@@ -3658,7 +4642,7 @@
         <f t="shared" si="4"/>
         <v>6217920.337109061</v>
       </c>
-      <c r="G44" s="26">
+      <c r="G44" s="25">
         <f t="shared" si="5"/>
         <v>9666666.666666666</v>
       </c>
@@ -3691,7 +4675,7 @@
         <f t="shared" si="4"/>
         <v>6217920.337109061</v>
       </c>
-      <c r="G45" s="26">
+      <c r="G45" s="25">
         <f t="shared" si="5"/>
         <v>9666666.666666666</v>
       </c>
@@ -3724,7 +4708,7 @@
         <f t="shared" si="4"/>
         <v>6217920.337109061</v>
       </c>
-      <c r="G46" s="26">
+      <c r="G46" s="25">
         <f t="shared" si="5"/>
         <v>9666666.666666666</v>
       </c>
@@ -3757,7 +4741,7 @@
         <f t="shared" si="4"/>
         <v>6217920.337109061</v>
       </c>
-      <c r="G47" s="26">
+      <c r="G47" s="25">
         <f t="shared" si="5"/>
         <v>9666666.666666666</v>
       </c>
@@ -3790,7 +4774,7 @@
         <f t="shared" si="4"/>
         <v>6217920.337109061</v>
       </c>
-      <c r="G48" s="26">
+      <c r="G48" s="25">
         <f t="shared" si="5"/>
         <v>9666666.666666666</v>
       </c>
@@ -3823,7 +4807,7 @@
         <f t="shared" si="4"/>
         <v>6217920.337109061</v>
       </c>
-      <c r="G49" s="26">
+      <c r="G49" s="25">
         <f t="shared" si="5"/>
         <v>9666666.666666666</v>
       </c>
@@ -3859,7 +4843,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F6D81C7-B300-4311-9A03-B873646C37FD}">
   <dimension ref="A1:D6"/>
   <sheetViews>

--- a/data/Analysis/NPV.xlsx
+++ b/data/Analysis/NPV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A7B2E4-9AFC-4909-BF11-1B19349BD1DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD3AF8A-9793-41DA-8D98-9ED11A7DD30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{83D55FD4-1814-4229-ACF7-7739455E9410}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{83D55FD4-1814-4229-ACF7-7739455E9410}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="npv_real" sheetId="6" r:id="rId3"/>
     <sheet name="npv" sheetId="2" r:id="rId4"/>
     <sheet name="annuity" sheetId="3" r:id="rId5"/>
+    <sheet name="CONE" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="80">
   <si>
     <t>name</t>
   </si>
@@ -242,17 +243,76 @@
   <si>
     <t>turbine</t>
   </si>
+  <si>
+    <t>fixed costs</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>construction and lifetime</t>
+  </si>
+  <si>
+    <t>CONE  fix</t>
+  </si>
+  <si>
+    <t>CONE var</t>
+  </si>
+  <si>
+    <t>LOLE</t>
+  </si>
+  <si>
+    <t>VOLL</t>
+  </si>
+  <si>
+    <t>Eur/MWh</t>
+  </si>
+  <si>
+    <t>fuel price</t>
+  </si>
+  <si>
+    <t>efficiency</t>
+  </si>
+  <si>
+    <t>fuel costs</t>
+  </si>
+  <si>
+    <t>CO2 costs</t>
+  </si>
+  <si>
+    <t>turbine CO2 intensity</t>
+  </si>
+  <si>
+    <t>Eur/ton</t>
+  </si>
+  <si>
+    <t>&lt; the needed cone if considered that there are loans, is much lower</t>
+  </si>
+  <si>
+    <t>ACER</t>
+  </si>
+  <si>
+    <t>yearly pays</t>
+  </si>
+  <si>
+    <t>factor</t>
+  </si>
+  <si>
+    <t>derating factor</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="6" formatCode="&quot;€&quot;\ #,##0;[Red]&quot;€&quot;\ \-#,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;€&quot;\ #,##0.00;[Red]&quot;€&quot;\ \-#,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_ &quot;€&quot;\ * #,##0_ ;_ &quot;€&quot;\ * \-#,##0_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,8 +378,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -332,8 +399,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -341,12 +413,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -393,11 +481,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -815,19 +907,19 @@
       <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="19.6328125" customWidth="1"/>
-    <col min="5" max="5" width="15.54296875" customWidth="1"/>
-    <col min="6" max="6" width="10.7265625" customWidth="1"/>
-    <col min="7" max="7" width="15.453125" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" customWidth="1"/>
-    <col min="9" max="9" width="16.36328125" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1657,18 +1749,18 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="2.54296875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="27.453125" style="8" customWidth="1"/>
-    <col min="5" max="7" width="21.54296875" customWidth="1"/>
-    <col min="8" max="8" width="20.81640625" customWidth="1"/>
-    <col min="9" max="9" width="14.36328125" customWidth="1"/>
-    <col min="10" max="10" width="17.453125" customWidth="1"/>
-    <col min="11" max="11" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="2.5703125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" style="8" customWidth="1"/>
+    <col min="5" max="7" width="21.5703125" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1748,7 +1840,7 @@
         <v>46821565.523196638</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="18.5">
+    <row r="5" spans="1:12" ht="18.75">
       <c r="A5" s="19" t="s">
         <v>18</v>
       </c>
@@ -1761,7 +1853,7 @@
         <v>108300000</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="18.5">
+    <row r="6" spans="1:12" ht="18.75">
       <c r="A6" s="19" t="s">
         <v>19</v>
       </c>
@@ -1812,7 +1904,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:12" s="13" customFormat="1" ht="45.5" customHeight="1">
+    <row r="10" spans="1:12" s="13" customFormat="1" ht="45.6" customHeight="1">
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15" t="s">
@@ -2466,25 +2558,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6754F988-D687-4795-A200-06C377B17A67}">
   <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="2.54296875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="27.453125" style="8" customWidth="1"/>
-    <col min="5" max="7" width="21.54296875" customWidth="1"/>
-    <col min="8" max="8" width="24.26953125" customWidth="1"/>
-    <col min="9" max="9" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.7265625" customWidth="1"/>
-    <col min="11" max="11" width="20.81640625" customWidth="1"/>
-    <col min="12" max="12" width="14.36328125" customWidth="1"/>
-    <col min="13" max="13" width="17.453125" customWidth="1"/>
-    <col min="14" max="14" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="2.5703125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" style="8" customWidth="1"/>
+    <col min="5" max="7" width="21.5703125" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -2599,7 +2691,7 @@
       <c r="I4" s="27"/>
       <c r="J4" s="27"/>
     </row>
-    <row r="5" spans="1:15" ht="18.5">
+    <row r="5" spans="1:15" ht="18.75">
       <c r="A5" s="19" t="s">
         <v>18</v>
       </c>
@@ -2611,7 +2703,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="18.5">
+    <row r="6" spans="1:15" ht="18.75">
       <c r="A6" s="19" t="s">
         <v>19</v>
       </c>
@@ -2665,7 +2757,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:15" s="13" customFormat="1" ht="45.5" customHeight="1">
+    <row r="10" spans="1:15" s="13" customFormat="1" ht="45.6" customHeight="1">
       <c r="B10" s="14" t="s">
         <v>60</v>
       </c>
@@ -2704,7 +2796,10 @@
         <v>9.0316308109760879E-2</v>
       </c>
       <c r="F13" s="9"/>
-      <c r="G13" s="23"/>
+      <c r="G13" s="12">
+        <f>IRR($E$17:$E$48)</f>
+        <v>9.0316308109760879E-2</v>
+      </c>
       <c r="H13" s="9"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
@@ -2718,26 +2813,26 @@
         <v>-41945133.509693183</v>
       </c>
       <c r="C14" s="26"/>
-      <c r="D14" s="28">
+      <c r="D14" s="26">
         <f>NPV(B6,$D$17:$D$42)</f>
         <v>20735191.858717445</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="26">
         <f>NPV($B$6,$E$17:$E$48)</f>
         <v>262139191.57894319</v>
       </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26">
+        <f>NPV($B$6,$G$17:$G$48)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="26"/>
       <c r="I14" s="26"/>
       <c r="J14" s="26"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="29"/>
+      <c r="D15"/>
+      <c r="G15" s="22"/>
     </row>
     <row r="16" spans="1:15">
       <c r="B16" s="8" t="s">
@@ -2762,7 +2857,9 @@
         <v>-649800000</v>
       </c>
       <c r="F17" s="8"/>
-      <c r="G17" s="25"/>
+      <c r="G17" s="25">
+        <v>0</v>
+      </c>
       <c r="H17" s="8"/>
       <c r="J17" s="8"/>
     </row>
@@ -2780,7 +2877,9 @@
         <v>-649800000</v>
       </c>
       <c r="F18" s="8"/>
-      <c r="G18" s="25"/>
+      <c r="G18" s="25">
+        <v>0</v>
+      </c>
       <c r="H18" s="8"/>
       <c r="J18" s="8"/>
       <c r="L18" s="17" t="s">
@@ -2802,7 +2901,9 @@
         <v>113610980.80807</v>
       </c>
       <c r="F19" s="8"/>
-      <c r="G19" s="25"/>
+      <c r="G19" s="25">
+        <v>0</v>
+      </c>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
@@ -2825,7 +2926,9 @@
         <v>115162234.9017</v>
       </c>
       <c r="F20" s="8"/>
-      <c r="G20" s="25"/>
+      <c r="G20" s="25">
+        <v>0</v>
+      </c>
       <c r="H20" s="8"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
@@ -2848,7 +2951,9 @@
         <v>138265769.74270999</v>
       </c>
       <c r="F21" s="8"/>
-      <c r="G21" s="25"/>
+      <c r="G21" s="25">
+        <v>0</v>
+      </c>
       <c r="H21" s="8"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
@@ -2870,7 +2975,9 @@
         <v>104636705.10765</v>
       </c>
       <c r="F22" s="8"/>
-      <c r="G22" s="25"/>
+      <c r="G22" s="25">
+        <v>0</v>
+      </c>
       <c r="H22" s="8"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
@@ -2893,7 +3000,9 @@
         <v>168978062.54888001</v>
       </c>
       <c r="F23" s="8"/>
-      <c r="G23" s="25"/>
+      <c r="G23" s="25">
+        <v>0</v>
+      </c>
       <c r="H23" s="8"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
@@ -2915,7 +3024,9 @@
         <v>146618065.62988001</v>
       </c>
       <c r="F24" s="8"/>
-      <c r="G24" s="25"/>
+      <c r="G24" s="25">
+        <v>0</v>
+      </c>
       <c r="H24" s="8"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
@@ -2937,7 +3048,9 @@
         <v>179191003.3479</v>
       </c>
       <c r="F25" s="8"/>
-      <c r="G25" s="25"/>
+      <c r="G25" s="25">
+        <v>0</v>
+      </c>
       <c r="H25" s="8"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
@@ -2959,7 +3072,9 @@
         <v>138165215.60369</v>
       </c>
       <c r="F26" s="8"/>
-      <c r="G26" s="25"/>
+      <c r="G26" s="25">
+        <v>0</v>
+      </c>
       <c r="H26" s="8"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
@@ -2981,7 +3096,9 @@
         <v>120446909.93516</v>
       </c>
       <c r="F27" s="8"/>
-      <c r="G27" s="25"/>
+      <c r="G27" s="25">
+        <v>0</v>
+      </c>
       <c r="H27" s="8"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
@@ -3003,7 +3120,9 @@
         <v>134115672.2474</v>
       </c>
       <c r="F28" s="8"/>
-      <c r="G28" s="25"/>
+      <c r="G28" s="25">
+        <v>0</v>
+      </c>
       <c r="H28" s="8"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
@@ -3023,7 +3142,9 @@
         <v>137221971.05853</v>
       </c>
       <c r="F29" s="8"/>
-      <c r="G29" s="25"/>
+      <c r="G29" s="25">
+        <v>0</v>
+      </c>
       <c r="H29" s="8"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
@@ -3045,7 +3166,9 @@
         <v>130654690.33807001</v>
       </c>
       <c r="F30" s="8"/>
-      <c r="G30" s="25"/>
+      <c r="G30" s="25">
+        <v>0</v>
+      </c>
       <c r="H30" s="8"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
@@ -3067,7 +3190,9 @@
         <v>125448314.1344</v>
       </c>
       <c r="F31" s="8"/>
-      <c r="G31" s="25"/>
+      <c r="G31" s="25">
+        <v>0</v>
+      </c>
       <c r="H31" s="8"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
@@ -3086,7 +3211,9 @@
         <v>125130073.62319</v>
       </c>
       <c r="F32" s="8"/>
-      <c r="G32" s="25"/>
+      <c r="G32" s="25">
+        <v>0</v>
+      </c>
       <c r="H32" s="8"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
@@ -3108,7 +3235,9 @@
         <v>137906154.56772</v>
       </c>
       <c r="F33" s="8"/>
-      <c r="G33" s="25"/>
+      <c r="G33" s="25">
+        <v>0</v>
+      </c>
       <c r="H33" s="8"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
@@ -3127,7 +3256,9 @@
         <v>136256645.43597999</v>
       </c>
       <c r="F34" s="8"/>
-      <c r="G34" s="25"/>
+      <c r="G34" s="25">
+        <v>0</v>
+      </c>
       <c r="H34" s="8"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
@@ -3146,7 +3277,9 @@
         <v>123629233.20122001</v>
       </c>
       <c r="F35" s="8"/>
-      <c r="G35" s="25"/>
+      <c r="G35" s="25">
+        <v>0</v>
+      </c>
       <c r="H35" s="8"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
@@ -3165,7 +3298,9 @@
         <v>155271297.82675001</v>
       </c>
       <c r="F36" s="8"/>
-      <c r="G36" s="25"/>
+      <c r="G36" s="25">
+        <v>0</v>
+      </c>
       <c r="H36" s="8"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
@@ -3184,7 +3319,9 @@
         <v>131321746.84281</v>
       </c>
       <c r="F37" s="8"/>
-      <c r="G37" s="25"/>
+      <c r="G37" s="25">
+        <v>0</v>
+      </c>
       <c r="H37" s="8"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
@@ -3203,7 +3340,9 @@
         <v>137705544.62830001</v>
       </c>
       <c r="F38" s="8"/>
-      <c r="G38" s="25"/>
+      <c r="G38" s="25">
+        <v>0</v>
+      </c>
       <c r="H38" s="8"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
@@ -3222,7 +3361,9 @@
         <v>129279211.19497</v>
       </c>
       <c r="F39" s="8"/>
-      <c r="G39" s="25"/>
+      <c r="G39" s="25">
+        <v>0</v>
+      </c>
       <c r="H39" s="8"/>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
@@ -3241,7 +3382,9 @@
         <v>111395388.92047</v>
       </c>
       <c r="F40" s="8"/>
-      <c r="G40" s="25"/>
+      <c r="G40" s="25">
+        <v>0</v>
+      </c>
       <c r="H40" s="8"/>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
@@ -3260,7 +3403,9 @@
         <v>113508918.1487</v>
       </c>
       <c r="F41" s="8"/>
-      <c r="G41" s="25"/>
+      <c r="G41" s="25">
+        <v>0</v>
+      </c>
       <c r="H41" s="8"/>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
@@ -3279,7 +3424,9 @@
         <v>119126810.71479</v>
       </c>
       <c r="F42" s="8"/>
-      <c r="G42" s="25"/>
+      <c r="G42" s="25">
+        <v>0</v>
+      </c>
       <c r="H42" s="8"/>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
@@ -3295,7 +3442,9 @@
         <v>120742361.32557</v>
       </c>
       <c r="F43" s="8"/>
-      <c r="G43" s="25"/>
+      <c r="G43" s="25">
+        <v>0</v>
+      </c>
       <c r="H43" s="8"/>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
@@ -3305,7 +3454,9 @@
         <v>125210866.90606</v>
       </c>
       <c r="F44" s="8"/>
-      <c r="G44" s="25"/>
+      <c r="G44" s="25">
+        <v>0</v>
+      </c>
       <c r="H44" s="8"/>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
@@ -3315,7 +3466,9 @@
         <v>117617444.69209</v>
       </c>
       <c r="F45" s="8"/>
-      <c r="G45" s="25"/>
+      <c r="G45" s="25">
+        <v>0</v>
+      </c>
       <c r="H45" s="8"/>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
@@ -3325,7 +3478,9 @@
         <v>136040698.75827</v>
       </c>
       <c r="F46" s="8"/>
-      <c r="G46" s="25"/>
+      <c r="G46" s="25">
+        <v>0</v>
+      </c>
       <c r="H46" s="8"/>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
@@ -3335,7 +3490,9 @@
         <v>130283984.98306</v>
       </c>
       <c r="F47" s="8"/>
-      <c r="G47" s="25"/>
+      <c r="G47" s="25">
+        <v>0</v>
+      </c>
       <c r="H47" s="8"/>
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
@@ -3345,7 +3502,9 @@
         <v>149723987.95829999</v>
       </c>
       <c r="F48" s="8"/>
-      <c r="G48" s="25"/>
+      <c r="G48" s="25">
+        <v>0</v>
+      </c>
       <c r="H48" s="8"/>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
@@ -3384,25 +3543,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C261F92-D42A-45AF-90F6-72A03AECACA1}">
   <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="2.54296875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="27.453125" style="8" customWidth="1"/>
-    <col min="5" max="7" width="21.54296875" customWidth="1"/>
-    <col min="8" max="8" width="24.26953125" customWidth="1"/>
-    <col min="9" max="9" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.7265625" customWidth="1"/>
-    <col min="11" max="11" width="20.81640625" customWidth="1"/>
-    <col min="12" max="12" width="14.36328125" customWidth="1"/>
-    <col min="13" max="13" width="17.453125" customWidth="1"/>
-    <col min="14" max="14" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="2.5703125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" style="8" customWidth="1"/>
+    <col min="5" max="7" width="21.5703125" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -3446,7 +3605,7 @@
         <v>22</v>
       </c>
       <c r="B2">
-        <v>0.3</v>
+        <v>25</v>
       </c>
       <c r="C2"/>
       <c r="D2" s="8" t="s">
@@ -3517,7 +3676,7 @@
       <c r="I4" s="27"/>
       <c r="J4" s="27"/>
     </row>
-    <row r="5" spans="1:15" ht="18.5">
+    <row r="5" spans="1:15" ht="18.75">
       <c r="A5" s="19" t="s">
         <v>18</v>
       </c>
@@ -3529,7 +3688,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="18.5">
+    <row r="6" spans="1:15" ht="18.75">
       <c r="A6" s="19" t="s">
         <v>19</v>
       </c>
@@ -3583,7 +3742,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:15" s="13" customFormat="1" ht="45.5" customHeight="1">
+    <row r="10" spans="1:15" s="13" customFormat="1" ht="45.6" customHeight="1">
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15" t="s">
@@ -4848,12 +5007,12 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4903,4 +5062,1424 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5916116-FA22-4600-A16A-38A51EC175E0}">
+  <dimension ref="A1:L52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="8">
+        <v>435000</v>
+      </c>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="8">
+        <f>B1/B2</f>
+        <v>14500</v>
+      </c>
+      <c r="F1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1">
+        <v>0.4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1">
+        <f>G3</f>
+        <v>112.75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="7">
+        <f>PMT(B5,B2,B1)</f>
+        <v>-35055.085527333373</v>
+      </c>
+      <c r="F2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2">
+        <f>45.1</f>
+        <v>45.1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2">
+        <v>4000</v>
+      </c>
+      <c r="L2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3">
+        <f>G2/G1</f>
+        <v>112.75</v>
+      </c>
+      <c r="H3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="29">
+        <f>D17/(K2)</f>
+        <v>15.291568582437881</v>
+      </c>
+      <c r="L3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="8">
+        <f>B1*B7/(B3+1)</f>
+        <v>26100</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" s="29">
+        <f>D17/(K2-K1)</f>
+        <v>15.735101763393537</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="18.75">
+      <c r="A5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="9">
+        <f>7%</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5">
+        <v>200</v>
+      </c>
+      <c r="H5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="9">
+        <f>(B9*((1+B9)^B12))/(((1+B9)^B13)-1)</f>
+        <v>0.12868975902748905</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="9">
+        <f>(B8*B5)+( B7*B6)</f>
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="33">
+        <v>8700</v>
+      </c>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="33">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="28">
+        <f>35</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <f>30</f>
+        <v>30</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="30"/>
+      <c r="F13" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="30"/>
+      <c r="I13" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="30"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14">
+        <v>0.95</v>
+      </c>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="C15" s="30"/>
+      <c r="D15" s="31">
+        <f>SUM(D18:D52)</f>
+        <v>451535.23522296496</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31">
+        <f>SUM(G18:G52)</f>
+        <v>221802.69622003456</v>
+      </c>
+      <c r="H15" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31">
+        <f>SUM(J18:J52)</f>
+        <v>418318.79065951536</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="33">
+        <f>NPV(B5,$B$49:$B$52)</f>
+        <v>139891.82489196007</v>
+      </c>
+      <c r="C16" s="30"/>
+      <c r="D16" s="32">
+        <f>D15*D6</f>
+        <v>58107.960613263946</v>
+      </c>
+      <c r="F16" s="30"/>
+      <c r="G16" s="32">
+        <f>G15*D6</f>
+        <v>28543.735528203604</v>
+      </c>
+      <c r="I16" s="30"/>
+      <c r="J16" s="32">
+        <f>J15*D6</f>
+        <v>53833.344366643672</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="B17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="31">
+        <f>D16/B14</f>
+        <v>61166.274329751526</v>
+      </c>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" s="8">
+        <f>-B1/4</f>
+        <v>-108750</v>
+      </c>
+      <c r="C18" s="31">
+        <f>B1/4</f>
+        <v>108750</v>
+      </c>
+      <c r="D18" s="31">
+        <f>C18/(1+$B$5)^A18</f>
+        <v>101635.51401869158</v>
+      </c>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" s="8">
+        <f>B18</f>
+        <v>-108750</v>
+      </c>
+      <c r="C19" s="31">
+        <f>C18</f>
+        <v>108750</v>
+      </c>
+      <c r="D19" s="31">
+        <f>C19/(1+$B$5)^A19</f>
+        <v>94986.46169971177</v>
+      </c>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" s="8">
+        <f t="shared" ref="B20:B21" si="0">B19</f>
+        <v>-108750</v>
+      </c>
+      <c r="C20" s="31">
+        <f t="shared" ref="C20:C21" si="1">C19</f>
+        <v>108750</v>
+      </c>
+      <c r="D20" s="31">
+        <f>C20/(1+$B$5)^A20</f>
+        <v>88772.394111880145</v>
+      </c>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21" s="8">
+        <f t="shared" si="0"/>
+        <v>-108750</v>
+      </c>
+      <c r="C21" s="31">
+        <f t="shared" si="1"/>
+        <v>108750</v>
+      </c>
+      <c r="D21" s="31">
+        <f>C21/(1+$B$5)^A21</f>
+        <v>82964.854310168361</v>
+      </c>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22" s="8">
+        <f>B11-B10</f>
+        <v>41300</v>
+      </c>
+      <c r="C22" s="31">
+        <f>B10</f>
+        <v>8700</v>
+      </c>
+      <c r="D22" s="31">
+        <f>C22/(1+$B$5)^A22</f>
+        <v>6202.9797615079151</v>
+      </c>
+      <c r="F22" s="31">
+        <f>D1+B10</f>
+        <v>23200</v>
+      </c>
+      <c r="G22" s="31">
+        <f>F22/(1+$B$5)^A22</f>
+        <v>16541.279364021106</v>
+      </c>
+      <c r="I22" s="31">
+        <f>-D2+B10</f>
+        <v>43755.085527333373</v>
+      </c>
+      <c r="J22" s="31">
+        <f>I22/(1+$B$5)^A22</f>
+        <v>31196.771263114573</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23" s="8">
+        <f>B22</f>
+        <v>41300</v>
+      </c>
+      <c r="C23" s="31">
+        <f>C22</f>
+        <v>8700</v>
+      </c>
+      <c r="D23" s="31">
+        <f>C23/(1+$B$5)^A23</f>
+        <v>5797.1773472036593</v>
+      </c>
+      <c r="F23" s="31">
+        <f>F22</f>
+        <v>23200</v>
+      </c>
+      <c r="G23" s="31">
+        <f>F23/(1+$B$5)^A23</f>
+        <v>15459.139592543092</v>
+      </c>
+      <c r="I23" s="31">
+        <f>I22</f>
+        <v>43755.085527333373</v>
+      </c>
+      <c r="J23" s="31">
+        <f t="shared" ref="J23:J52" si="2">I23/(1+$B$5)^A23</f>
+        <v>29155.860993565024</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24">
+        <v>7</v>
+      </c>
+      <c r="B24" s="8">
+        <f t="shared" ref="B24:B52" si="3">B23</f>
+        <v>41300</v>
+      </c>
+      <c r="C24" s="31">
+        <f t="shared" ref="C24:C52" si="4">C23</f>
+        <v>8700</v>
+      </c>
+      <c r="D24" s="31">
+        <f>C24/(1+$B$5)^A24</f>
+        <v>5417.9227543959423</v>
+      </c>
+      <c r="F24" s="31">
+        <f t="shared" ref="F24:F52" si="5">F23</f>
+        <v>23200</v>
+      </c>
+      <c r="G24" s="31">
+        <f>F24/(1+$B$5)^A24</f>
+        <v>14447.794011722513</v>
+      </c>
+      <c r="I24" s="31">
+        <f t="shared" ref="I24:I52" si="6">I23</f>
+        <v>43755.085527333373</v>
+      </c>
+      <c r="J24" s="31">
+        <f t="shared" si="2"/>
+        <v>27248.468218285067</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25">
+        <v>8</v>
+      </c>
+      <c r="B25" s="8">
+        <f t="shared" si="3"/>
+        <v>41300</v>
+      </c>
+      <c r="C25" s="31">
+        <f t="shared" si="4"/>
+        <v>8700</v>
+      </c>
+      <c r="D25" s="31">
+        <f>C25/(1+$B$5)^A25</f>
+        <v>5063.4792097158343</v>
+      </c>
+      <c r="F25" s="31">
+        <f t="shared" si="5"/>
+        <v>23200</v>
+      </c>
+      <c r="G25" s="31">
+        <f>F25/(1+$B$5)^A25</f>
+        <v>13502.611225908891</v>
+      </c>
+      <c r="I25" s="31">
+        <f t="shared" si="6"/>
+        <v>43755.085527333373</v>
+      </c>
+      <c r="J25" s="31">
+        <f t="shared" si="2"/>
+        <v>25465.858147929968</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26">
+        <v>9</v>
+      </c>
+      <c r="B26" s="8">
+        <f t="shared" si="3"/>
+        <v>41300</v>
+      </c>
+      <c r="C26" s="31">
+        <f t="shared" si="4"/>
+        <v>8700</v>
+      </c>
+      <c r="D26" s="31">
+        <f>C26/(1+$B$5)^A26</f>
+        <v>4732.223560482088</v>
+      </c>
+      <c r="F26" s="31">
+        <f t="shared" si="5"/>
+        <v>23200</v>
+      </c>
+      <c r="G26" s="31">
+        <f>F26/(1+$B$5)^A26</f>
+        <v>12619.262827952234</v>
+      </c>
+      <c r="I26" s="31">
+        <f t="shared" si="6"/>
+        <v>43755.085527333373</v>
+      </c>
+      <c r="J26" s="31">
+        <f t="shared" si="2"/>
+        <v>23799.867427971931</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27">
+        <v>10</v>
+      </c>
+      <c r="B27" s="8">
+        <f t="shared" si="3"/>
+        <v>41300</v>
+      </c>
+      <c r="C27" s="31">
+        <f t="shared" si="4"/>
+        <v>8700</v>
+      </c>
+      <c r="D27" s="31">
+        <f>C27/(1+$B$5)^A27</f>
+        <v>4422.6388415720448</v>
+      </c>
+      <c r="F27" s="31">
+        <f t="shared" si="5"/>
+        <v>23200</v>
+      </c>
+      <c r="G27" s="31">
+        <f>F27/(1+$B$5)^A27</f>
+        <v>11793.703577525454</v>
+      </c>
+      <c r="I27" s="31">
+        <f t="shared" si="6"/>
+        <v>43755.085527333373</v>
+      </c>
+      <c r="J27" s="31">
+        <f t="shared" si="2"/>
+        <v>22242.866755113955</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28">
+        <v>11</v>
+      </c>
+      <c r="B28" s="8">
+        <f t="shared" si="3"/>
+        <v>41300</v>
+      </c>
+      <c r="C28" s="31">
+        <f t="shared" si="4"/>
+        <v>8700</v>
+      </c>
+      <c r="D28" s="31">
+        <f>C28/(1+$B$5)^A28</f>
+        <v>4133.3073285720038</v>
+      </c>
+      <c r="F28" s="31">
+        <f t="shared" si="5"/>
+        <v>23200</v>
+      </c>
+      <c r="G28" s="31">
+        <f>F28/(1+$B$5)^A28</f>
+        <v>11022.152876192011</v>
+      </c>
+      <c r="I28" s="31">
+        <f t="shared" si="6"/>
+        <v>43755.085527333373</v>
+      </c>
+      <c r="J28" s="31">
+        <f t="shared" si="2"/>
+        <v>20787.725939358836</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29">
+        <v>12</v>
+      </c>
+      <c r="B29" s="8">
+        <f t="shared" si="3"/>
+        <v>41300</v>
+      </c>
+      <c r="C29" s="31">
+        <f t="shared" si="4"/>
+        <v>8700</v>
+      </c>
+      <c r="D29" s="31">
+        <f>C29/(1+$B$5)^A29</f>
+        <v>3862.9040453943971</v>
+      </c>
+      <c r="F29" s="31">
+        <f t="shared" si="5"/>
+        <v>23200</v>
+      </c>
+      <c r="G29" s="31">
+        <f>F29/(1+$B$5)^A29</f>
+        <v>10301.077454385058</v>
+      </c>
+      <c r="I29" s="31">
+        <f t="shared" si="6"/>
+        <v>43755.085527333373</v>
+      </c>
+      <c r="J29" s="31">
+        <f t="shared" si="2"/>
+        <v>19427.781251737233</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30">
+        <v>13</v>
+      </c>
+      <c r="B30" s="8">
+        <f t="shared" si="3"/>
+        <v>41300</v>
+      </c>
+      <c r="C30" s="31">
+        <f t="shared" si="4"/>
+        <v>8700</v>
+      </c>
+      <c r="D30" s="31">
+        <f>C30/(1+$B$5)^A30</f>
+        <v>3610.1906966302772</v>
+      </c>
+      <c r="F30" s="31">
+        <f t="shared" si="5"/>
+        <v>23200</v>
+      </c>
+      <c r="G30" s="31">
+        <f>F30/(1+$B$5)^A30</f>
+        <v>9627.175191014072</v>
+      </c>
+      <c r="I30" s="31">
+        <f t="shared" si="6"/>
+        <v>43755.085527333373</v>
+      </c>
+      <c r="J30" s="31">
+        <f t="shared" si="2"/>
+        <v>18156.804908165635</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31">
+        <v>14</v>
+      </c>
+      <c r="B31" s="8">
+        <f t="shared" si="3"/>
+        <v>41300</v>
+      </c>
+      <c r="C31" s="31">
+        <f t="shared" si="4"/>
+        <v>8700</v>
+      </c>
+      <c r="D31" s="31">
+        <f>C31/(1+$B$5)^A31</f>
+        <v>3374.0099968507266</v>
+      </c>
+      <c r="F31" s="31">
+        <f t="shared" si="5"/>
+        <v>23200</v>
+      </c>
+      <c r="G31" s="31">
+        <f>F31/(1+$B$5)^A31</f>
+        <v>8997.3599916019375</v>
+      </c>
+      <c r="I31" s="31">
+        <f t="shared" si="6"/>
+        <v>43755.085527333373</v>
+      </c>
+      <c r="J31" s="31">
+        <f t="shared" si="2"/>
+        <v>16968.976549687512</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32">
+        <v>15</v>
+      </c>
+      <c r="B32" s="8">
+        <f t="shared" si="3"/>
+        <v>41300</v>
+      </c>
+      <c r="C32" s="31">
+        <f t="shared" si="4"/>
+        <v>8700</v>
+      </c>
+      <c r="D32" s="31">
+        <f>C32/(1+$B$5)^A32</f>
+        <v>3153.280370888529</v>
+      </c>
+      <c r="F32" s="31">
+        <f t="shared" si="5"/>
+        <v>23200</v>
+      </c>
+      <c r="G32" s="31">
+        <f>F32/(1+$B$5)^A32</f>
+        <v>8408.7476557027439</v>
+      </c>
+      <c r="I32" s="31">
+        <f t="shared" si="6"/>
+        <v>43755.085527333373</v>
+      </c>
+      <c r="J32" s="31">
+        <f t="shared" si="2"/>
+        <v>15858.856588492999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33">
+        <v>16</v>
+      </c>
+      <c r="B33" s="8">
+        <f t="shared" si="3"/>
+        <v>41300</v>
+      </c>
+      <c r="C33" s="31">
+        <f t="shared" si="4"/>
+        <v>8700</v>
+      </c>
+      <c r="D33" s="31">
+        <f>C33/(1+$B$5)^A33</f>
+        <v>2946.9910008304014</v>
+      </c>
+      <c r="F33" s="31">
+        <f t="shared" si="5"/>
+        <v>23200</v>
+      </c>
+      <c r="G33" s="31">
+        <f>F33/(1+$B$5)^A33</f>
+        <v>7858.6426688810707</v>
+      </c>
+      <c r="I33" s="31">
+        <f t="shared" si="6"/>
+        <v>43755.085527333373</v>
+      </c>
+      <c r="J33" s="31">
+        <f t="shared" si="2"/>
+        <v>14821.361297657011</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34">
+        <v>17</v>
+      </c>
+      <c r="B34" s="8">
+        <f t="shared" si="3"/>
+        <v>41300</v>
+      </c>
+      <c r="C34" s="31">
+        <f t="shared" si="4"/>
+        <v>8700</v>
+      </c>
+      <c r="D34" s="31">
+        <f>C34/(1+$B$5)^A34</f>
+        <v>2754.1971970377585</v>
+      </c>
+      <c r="F34" s="31">
+        <f t="shared" si="5"/>
+        <v>23200</v>
+      </c>
+      <c r="G34" s="31">
+        <f>F34/(1+$B$5)^A34</f>
+        <v>7344.5258587673552</v>
+      </c>
+      <c r="I34" s="31">
+        <f t="shared" si="6"/>
+        <v>43755.085527333373</v>
+      </c>
+      <c r="J34" s="31">
+        <f t="shared" si="2"/>
+        <v>13851.73953052057</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35">
+        <v>18</v>
+      </c>
+      <c r="B35" s="8">
+        <f t="shared" si="3"/>
+        <v>41300</v>
+      </c>
+      <c r="C35" s="31">
+        <f t="shared" si="4"/>
+        <v>8700</v>
+      </c>
+      <c r="D35" s="31">
+        <f>C35/(1+$B$5)^A35</f>
+        <v>2574.0160719979049</v>
+      </c>
+      <c r="F35" s="31">
+        <f t="shared" si="5"/>
+        <v>23200</v>
+      </c>
+      <c r="G35" s="31">
+        <f>F35/(1+$B$5)^A35</f>
+        <v>6864.0428586610797</v>
+      </c>
+      <c r="I35" s="31">
+        <f t="shared" si="6"/>
+        <v>43755.085527333373</v>
+      </c>
+      <c r="J35" s="31">
+        <f t="shared" si="2"/>
+        <v>12945.550963103336</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36">
+        <v>19</v>
+      </c>
+      <c r="B36" s="8">
+        <f t="shared" si="3"/>
+        <v>41300</v>
+      </c>
+      <c r="C36" s="31">
+        <f t="shared" si="4"/>
+        <v>8700</v>
+      </c>
+      <c r="D36" s="31">
+        <f>C36/(1+$B$5)^A36</f>
+        <v>2405.6224971943034</v>
+      </c>
+      <c r="F36" s="31">
+        <f t="shared" si="5"/>
+        <v>23200</v>
+      </c>
+      <c r="G36" s="31">
+        <f>F36/(1+$B$5)^A36</f>
+        <v>6414.9933258514766</v>
+      </c>
+      <c r="I36" s="31">
+        <f t="shared" si="6"/>
+        <v>43755.085527333373</v>
+      </c>
+      <c r="J36" s="31">
+        <f t="shared" si="2"/>
+        <v>12098.645759909659</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37">
+        <v>20</v>
+      </c>
+      <c r="B37" s="8">
+        <f t="shared" si="3"/>
+        <v>41300</v>
+      </c>
+      <c r="C37" s="31">
+        <f t="shared" si="4"/>
+        <v>8700</v>
+      </c>
+      <c r="D37" s="31">
+        <f>C37/(1+$B$5)^A37</f>
+        <v>2248.2453244806575</v>
+      </c>
+      <c r="F37" s="31">
+        <f t="shared" si="5"/>
+        <v>23200</v>
+      </c>
+      <c r="G37" s="31">
+        <f>F37/(1+$B$5)^A37</f>
+        <v>5995.3208652817539</v>
+      </c>
+      <c r="I37" s="31">
+        <f t="shared" si="6"/>
+        <v>43755.085527333373</v>
+      </c>
+      <c r="J37" s="31">
+        <f t="shared" si="2"/>
+        <v>11307.145570009028</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38">
+        <v>21</v>
+      </c>
+      <c r="B38" s="8">
+        <f t="shared" si="3"/>
+        <v>41300</v>
+      </c>
+      <c r="C38" s="31">
+        <f t="shared" si="4"/>
+        <v>8700</v>
+      </c>
+      <c r="D38" s="31">
+        <f>C38/(1+$B$5)^A38</f>
+        <v>2101.1638546548202</v>
+      </c>
+      <c r="F38" s="31">
+        <f t="shared" si="5"/>
+        <v>23200</v>
+      </c>
+      <c r="G38" s="31">
+        <f>F38/(1+$B$5)^A38</f>
+        <v>5603.1036124128541</v>
+      </c>
+      <c r="I38" s="31">
+        <f t="shared" si="6"/>
+        <v>43755.085527333373</v>
+      </c>
+      <c r="J38" s="31">
+        <f t="shared" si="2"/>
+        <v>10567.425766363578</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39">
+        <v>22</v>
+      </c>
+      <c r="B39" s="8">
+        <f t="shared" si="3"/>
+        <v>41300</v>
+      </c>
+      <c r="C39" s="31">
+        <f t="shared" si="4"/>
+        <v>8700</v>
+      </c>
+      <c r="D39" s="31">
+        <f>C39/(1+$B$5)^A39</f>
+        <v>1963.7045370605797</v>
+      </c>
+      <c r="F39" s="31">
+        <f t="shared" si="5"/>
+        <v>23200</v>
+      </c>
+      <c r="G39" s="31">
+        <f>F39/(1+$B$5)^A39</f>
+        <v>5236.5454321615452</v>
+      </c>
+      <c r="I39" s="31">
+        <f t="shared" si="6"/>
+        <v>43755.085527333373</v>
+      </c>
+      <c r="J39" s="31">
+        <f t="shared" si="2"/>
+        <v>9876.0988470687644</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40">
+        <v>23</v>
+      </c>
+      <c r="B40" s="8">
+        <f t="shared" si="3"/>
+        <v>41300</v>
+      </c>
+      <c r="C40" s="31">
+        <f t="shared" si="4"/>
+        <v>8700</v>
+      </c>
+      <c r="D40" s="31">
+        <f>C40/(1+$B$5)^A40</f>
+        <v>1835.2378851033454</v>
+      </c>
+      <c r="F40" s="31">
+        <f t="shared" si="5"/>
+        <v>23200</v>
+      </c>
+      <c r="G40" s="31">
+        <f>F40/(1+$B$5)^A40</f>
+        <v>4893.9676936089209</v>
+      </c>
+      <c r="I40" s="31">
+        <f t="shared" si="6"/>
+        <v>43755.085527333373</v>
+      </c>
+      <c r="J40" s="31">
+        <f t="shared" si="2"/>
+        <v>9229.998922494171</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41">
+        <v>24</v>
+      </c>
+      <c r="B41" s="8">
+        <f t="shared" si="3"/>
+        <v>41300</v>
+      </c>
+      <c r="C41" s="31">
+        <f t="shared" si="4"/>
+        <v>8700</v>
+      </c>
+      <c r="D41" s="31">
+        <f>C41/(1+$B$5)^A41</f>
+        <v>1715.1755935545284</v>
+      </c>
+      <c r="F41" s="31">
+        <f t="shared" si="5"/>
+        <v>23200</v>
+      </c>
+      <c r="G41" s="31">
+        <f>F41/(1+$B$5)^A41</f>
+        <v>4573.8015828120751</v>
+      </c>
+      <c r="I41" s="31">
+        <f t="shared" si="6"/>
+        <v>43755.085527333373</v>
+      </c>
+      <c r="J41" s="31">
+        <f t="shared" si="2"/>
+        <v>8626.1672172842718</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42">
+        <v>25</v>
+      </c>
+      <c r="B42" s="8">
+        <f t="shared" si="3"/>
+        <v>41300</v>
+      </c>
+      <c r="C42" s="31">
+        <f t="shared" si="4"/>
+        <v>8700</v>
+      </c>
+      <c r="D42" s="31">
+        <f>C42/(1+$B$5)^A42</f>
+        <v>1602.9678444434844</v>
+      </c>
+      <c r="F42" s="31">
+        <f t="shared" si="5"/>
+        <v>23200</v>
+      </c>
+      <c r="G42" s="31">
+        <f>F42/(1+$B$5)^A42</f>
+        <v>4274.5809185159578</v>
+      </c>
+      <c r="I42" s="31">
+        <f t="shared" si="6"/>
+        <v>43755.085527333373</v>
+      </c>
+      <c r="J42" s="31">
+        <f t="shared" si="2"/>
+        <v>8061.8385208264226</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43">
+        <v>26</v>
+      </c>
+      <c r="B43" s="8">
+        <f t="shared" si="3"/>
+        <v>41300</v>
+      </c>
+      <c r="C43" s="31">
+        <f t="shared" si="4"/>
+        <v>8700</v>
+      </c>
+      <c r="D43" s="31">
+        <f>C43/(1+$B$5)^A43</f>
+        <v>1498.1007891995182</v>
+      </c>
+      <c r="F43" s="31">
+        <f t="shared" si="5"/>
+        <v>23200</v>
+      </c>
+      <c r="G43" s="31">
+        <f>F43/(1+$B$5)^A43</f>
+        <v>3994.935437865382</v>
+      </c>
+      <c r="I43" s="31">
+        <f t="shared" si="6"/>
+        <v>43755.085527333373</v>
+      </c>
+      <c r="J43" s="31">
+        <f t="shared" si="2"/>
+        <v>7534.4285241368443</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44">
+        <v>27</v>
+      </c>
+      <c r="B44" s="8">
+        <f t="shared" si="3"/>
+        <v>41300</v>
+      </c>
+      <c r="C44" s="31">
+        <f t="shared" si="4"/>
+        <v>8700</v>
+      </c>
+      <c r="D44" s="31">
+        <f>C44/(1+$B$5)^A44</f>
+        <v>1400.0941955135681</v>
+      </c>
+      <c r="F44" s="31">
+        <f t="shared" si="5"/>
+        <v>23200</v>
+      </c>
+      <c r="G44" s="31">
+        <f>F44/(1+$B$5)^A44</f>
+        <v>3733.5845213695152</v>
+      </c>
+      <c r="I44" s="31">
+        <f t="shared" si="6"/>
+        <v>43755.085527333373</v>
+      </c>
+      <c r="J44" s="31">
+        <f t="shared" si="2"/>
+        <v>7041.5219851746187</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45">
+        <v>28</v>
+      </c>
+      <c r="B45" s="8">
+        <f t="shared" si="3"/>
+        <v>41300</v>
+      </c>
+      <c r="C45" s="31">
+        <f t="shared" si="4"/>
+        <v>8700</v>
+      </c>
+      <c r="D45" s="31">
+        <f>C45/(1+$B$5)^A45</f>
+        <v>1308.4992481435218</v>
+      </c>
+      <c r="F45" s="31">
+        <f t="shared" si="5"/>
+        <v>23200</v>
+      </c>
+      <c r="G45" s="31">
+        <f>F45/(1+$B$5)^A45</f>
+        <v>3489.3313283827251</v>
+      </c>
+      <c r="I45" s="31">
+        <f t="shared" si="6"/>
+        <v>43755.085527333373</v>
+      </c>
+      <c r="J45" s="31">
+        <f t="shared" si="2"/>
+        <v>6580.8616683874961</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46">
+        <v>29</v>
+      </c>
+      <c r="B46" s="8">
+        <f t="shared" si="3"/>
+        <v>41300</v>
+      </c>
+      <c r="C46" s="31">
+        <f t="shared" si="4"/>
+        <v>8700</v>
+      </c>
+      <c r="D46" s="31">
+        <f>C46/(1+$B$5)^A46</f>
+        <v>1222.8964935920765</v>
+      </c>
+      <c r="F46" s="31">
+        <f t="shared" si="5"/>
+        <v>23200</v>
+      </c>
+      <c r="G46" s="31">
+        <f>F46/(1+$B$5)^A46</f>
+        <v>3261.0573162455371</v>
+      </c>
+      <c r="I46" s="31">
+        <f t="shared" si="6"/>
+        <v>43755.085527333373</v>
+      </c>
+      <c r="J46" s="31">
+        <f t="shared" si="2"/>
+        <v>6150.3380078387809</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47">
+        <v>30</v>
+      </c>
+      <c r="B47" s="8">
+        <f t="shared" si="3"/>
+        <v>41300</v>
+      </c>
+      <c r="C47" s="31">
+        <f t="shared" si="4"/>
+        <v>8700</v>
+      </c>
+      <c r="D47" s="31">
+        <f>C47/(1+$B$5)^A47</f>
+        <v>1142.8939192449313</v>
+      </c>
+      <c r="F47" s="31">
+        <f t="shared" si="5"/>
+        <v>23200</v>
+      </c>
+      <c r="G47" s="31">
+        <f>F47/(1+$B$5)^A47</f>
+        <v>3047.7171179864836</v>
+      </c>
+      <c r="I47" s="31">
+        <f t="shared" si="6"/>
+        <v>43755.085527333373</v>
+      </c>
+      <c r="J47" s="31">
+        <f t="shared" si="2"/>
+        <v>5747.9794465782998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48">
+        <v>31</v>
+      </c>
+      <c r="B48" s="8">
+        <f t="shared" si="3"/>
+        <v>41300</v>
+      </c>
+      <c r="C48" s="31">
+        <f t="shared" si="4"/>
+        <v>8700</v>
+      </c>
+      <c r="D48" s="31">
+        <f>C48/(1+$B$5)^A48</f>
+        <v>1068.1251581728327</v>
+      </c>
+      <c r="F48" s="31">
+        <f t="shared" si="5"/>
+        <v>23200</v>
+      </c>
+      <c r="G48" s="31">
+        <f>F48/(1+$B$5)^A48</f>
+        <v>2848.333755127554</v>
+      </c>
+      <c r="I48" s="31">
+        <f t="shared" si="6"/>
+        <v>43755.085527333373</v>
+      </c>
+      <c r="J48" s="31">
+        <f t="shared" si="2"/>
+        <v>5371.9434080171022</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49">
+        <v>32</v>
+      </c>
+      <c r="B49" s="8">
+        <f t="shared" si="3"/>
+        <v>41300</v>
+      </c>
+      <c r="C49" s="31">
+        <f t="shared" si="4"/>
+        <v>8700</v>
+      </c>
+      <c r="D49" s="31">
+        <f>C49/(1+$B$5)^A49</f>
+        <v>998.24781137647938</v>
+      </c>
+      <c r="F49" s="31">
+        <f t="shared" si="5"/>
+        <v>23200</v>
+      </c>
+      <c r="G49" s="31">
+        <f>F49/(1+$B$5)^A49</f>
+        <v>2661.9941636706117</v>
+      </c>
+      <c r="I49" s="31">
+        <f t="shared" si="6"/>
+        <v>43755.085527333373</v>
+      </c>
+      <c r="J49" s="31">
+        <f t="shared" si="2"/>
+        <v>5020.5078579599085</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50">
+        <v>33</v>
+      </c>
+      <c r="B50" s="8">
+        <f t="shared" si="3"/>
+        <v>41300</v>
+      </c>
+      <c r="C50" s="31">
+        <f t="shared" si="4"/>
+        <v>8700</v>
+      </c>
+      <c r="D50" s="31">
+        <f>C50/(1+$B$5)^A50</f>
+        <v>932.94187979110222</v>
+      </c>
+      <c r="F50" s="31">
+        <f t="shared" si="5"/>
+        <v>23200</v>
+      </c>
+      <c r="G50" s="31">
+        <f>F50/(1+$B$5)^A50</f>
+        <v>2487.8450127762726</v>
+      </c>
+      <c r="I50" s="31">
+        <f t="shared" si="6"/>
+        <v>43755.085527333373</v>
+      </c>
+      <c r="J50" s="31">
+        <f t="shared" si="2"/>
+        <v>4692.0634186541201</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51">
+        <v>34</v>
+      </c>
+      <c r="B51" s="8">
+        <f t="shared" si="3"/>
+        <v>41300</v>
+      </c>
+      <c r="C51" s="31">
+        <f t="shared" si="4"/>
+        <v>8700</v>
+      </c>
+      <c r="D51" s="31">
+        <f>C51/(1+$B$5)^A51</f>
+        <v>871.90829887018901</v>
+      </c>
+      <c r="F51" s="31">
+        <f t="shared" si="5"/>
+        <v>23200</v>
+      </c>
+      <c r="G51" s="31">
+        <f>F51/(1+$B$5)^A51</f>
+        <v>2325.0887969871706</v>
+      </c>
+      <c r="I51" s="31">
+        <f t="shared" si="6"/>
+        <v>43755.085527333373</v>
+      </c>
+      <c r="J51" s="31">
+        <f t="shared" si="2"/>
+        <v>4385.1059987421686</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52">
+        <v>35</v>
+      </c>
+      <c r="B52" s="8">
+        <f t="shared" si="3"/>
+        <v>41300</v>
+      </c>
+      <c r="C52" s="31">
+        <f t="shared" si="4"/>
+        <v>8700</v>
+      </c>
+      <c r="D52" s="31">
+        <f>C52/(1+$B$5)^A52</f>
+        <v>814.86756903755975</v>
+      </c>
+      <c r="F52" s="31">
+        <f t="shared" si="5"/>
+        <v>23200</v>
+      </c>
+      <c r="G52" s="31">
+        <f>F52/(1+$B$5)^A52</f>
+        <v>2172.9801841001595</v>
+      </c>
+      <c r="I52" s="31">
+        <f t="shared" si="6"/>
+        <v>43755.085527333373</v>
+      </c>
+      <c r="J52" s="31">
+        <f t="shared" si="2"/>
+        <v>4098.2299053665129</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>